--- a/RGB_img_corpus_one/0.3.dataStadictist/Estadisticas_descarga3_RGB_Vector.xlsx
+++ b/RGB_img_corpus_one/0.3.dataStadictist/Estadisticas_descarga3_RGB_Vector.xlsx
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,10 +453,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>962</v>
+        <v>24200</v>
       </c>
       <c r="B2">
-        <v>240.5</v>
+        <v>242</v>
       </c>
       <c r="C2">
         <v>242</v>
@@ -465,22 +465,22 @@
         <v>242</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="I2">
         <v>242</v>
       </c>
       <c r="J2">
-        <v>240.5</v>
+        <v>242</v>
       </c>
       <c r="K2">
         <v>242</v>
@@ -491,75 +491,75 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>943</v>
+        <v>24200</v>
       </c>
       <c r="B3">
-        <v>235.75</v>
+        <v>242</v>
       </c>
       <c r="C3">
-        <v>240.5</v>
+        <v>242</v>
       </c>
       <c r="D3">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="E3">
-        <v>162.25</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>12.737739202857</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="I3">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="J3">
-        <v>233.5</v>
+        <v>242</v>
       </c>
       <c r="K3">
-        <v>240.5</v>
+        <v>242</v>
       </c>
       <c r="L3">
-        <v>242.75</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>939</v>
+        <v>24200</v>
       </c>
       <c r="B4">
-        <v>234.75</v>
+        <v>242</v>
       </c>
       <c r="C4">
-        <v>240.5</v>
+        <v>242</v>
       </c>
       <c r="D4">
         <v>242</v>
       </c>
       <c r="E4">
-        <v>158.25</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>12.57974562540912</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="I4">
         <v>242</v>
       </c>
       <c r="J4">
-        <v>233.25</v>
+        <v>242</v>
       </c>
       <c r="K4">
-        <v>240.5</v>
+        <v>242</v>
       </c>
       <c r="L4">
         <v>242</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>968</v>
+        <v>24200</v>
       </c>
       <c r="B5">
         <v>242</v>
@@ -600,6 +600,3654 @@
         <v>242</v>
       </c>
       <c r="L5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>24200</v>
+      </c>
+      <c r="B6">
+        <v>242</v>
+      </c>
+      <c r="C6">
+        <v>242</v>
+      </c>
+      <c r="D6">
+        <v>242</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>242</v>
+      </c>
+      <c r="I6">
+        <v>242</v>
+      </c>
+      <c r="J6">
+        <v>242</v>
+      </c>
+      <c r="K6">
+        <v>242</v>
+      </c>
+      <c r="L6">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>24204</v>
+      </c>
+      <c r="B7">
+        <v>242.04</v>
+      </c>
+      <c r="C7">
+        <v>242</v>
+      </c>
+      <c r="D7">
+        <v>242</v>
+      </c>
+      <c r="E7">
+        <v>0.1802020202020204</v>
+      </c>
+      <c r="F7">
+        <v>0.4245020850384841</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>240</v>
+      </c>
+      <c r="I7">
+        <v>245</v>
+      </c>
+      <c r="J7">
+        <v>242</v>
+      </c>
+      <c r="K7">
+        <v>242</v>
+      </c>
+      <c r="L7">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>24196</v>
+      </c>
+      <c r="B8">
+        <v>241.96</v>
+      </c>
+      <c r="C8">
+        <v>242</v>
+      </c>
+      <c r="D8">
+        <v>242</v>
+      </c>
+      <c r="E8">
+        <v>0.0589898989898988</v>
+      </c>
+      <c r="F8">
+        <v>0.2428783625395618</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>240</v>
+      </c>
+      <c r="I8">
+        <v>242</v>
+      </c>
+      <c r="J8">
+        <v>242</v>
+      </c>
+      <c r="K8">
+        <v>242</v>
+      </c>
+      <c r="L8">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>24206</v>
+      </c>
+      <c r="B9">
+        <v>242.06</v>
+      </c>
+      <c r="C9">
+        <v>242</v>
+      </c>
+      <c r="D9">
+        <v>242</v>
+      </c>
+      <c r="E9">
+        <v>0.09737373737373747</v>
+      </c>
+      <c r="F9">
+        <v>0.3120476524086305</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>242</v>
+      </c>
+      <c r="I9">
+        <v>244</v>
+      </c>
+      <c r="J9">
+        <v>242</v>
+      </c>
+      <c r="K9">
+        <v>242</v>
+      </c>
+      <c r="L9">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>24195</v>
+      </c>
+      <c r="B10">
+        <v>241.95</v>
+      </c>
+      <c r="C10">
+        <v>242</v>
+      </c>
+      <c r="D10">
+        <v>242</v>
+      </c>
+      <c r="E10">
+        <v>0.6540404040404024</v>
+      </c>
+      <c r="F10">
+        <v>0.8087276451565152</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <v>237</v>
+      </c>
+      <c r="I10">
+        <v>246</v>
+      </c>
+      <c r="J10">
+        <v>242</v>
+      </c>
+      <c r="K10">
+        <v>242</v>
+      </c>
+      <c r="L10">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>24210</v>
+      </c>
+      <c r="B11">
+        <v>242.1</v>
+      </c>
+      <c r="C11">
+        <v>242</v>
+      </c>
+      <c r="D11">
+        <v>242</v>
+      </c>
+      <c r="E11">
+        <v>0.2525252525252522</v>
+      </c>
+      <c r="F11">
+        <v>0.5025189076296057</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>242</v>
+      </c>
+      <c r="I11">
+        <v>245</v>
+      </c>
+      <c r="J11">
+        <v>242</v>
+      </c>
+      <c r="K11">
+        <v>242</v>
+      </c>
+      <c r="L11">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>24171</v>
+      </c>
+      <c r="B12">
+        <v>241.71</v>
+      </c>
+      <c r="C12">
+        <v>242</v>
+      </c>
+      <c r="D12">
+        <v>242</v>
+      </c>
+      <c r="E12">
+        <v>7.94535353535355</v>
+      </c>
+      <c r="F12">
+        <v>2.818750349951828</v>
+      </c>
+      <c r="G12">
+        <v>28</v>
+      </c>
+      <c r="H12">
+        <v>215</v>
+      </c>
+      <c r="I12">
+        <v>243</v>
+      </c>
+      <c r="J12">
+        <v>242</v>
+      </c>
+      <c r="K12">
+        <v>242</v>
+      </c>
+      <c r="L12">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>23856</v>
+      </c>
+      <c r="B13">
+        <v>238.56</v>
+      </c>
+      <c r="C13">
+        <v>242</v>
+      </c>
+      <c r="D13">
+        <v>242</v>
+      </c>
+      <c r="E13">
+        <v>107.0367676767677</v>
+      </c>
+      <c r="F13">
+        <v>10.34585751287769</v>
+      </c>
+      <c r="G13">
+        <v>66</v>
+      </c>
+      <c r="H13">
+        <v>181</v>
+      </c>
+      <c r="I13">
+        <v>247</v>
+      </c>
+      <c r="J13">
+        <v>242</v>
+      </c>
+      <c r="K13">
+        <v>242</v>
+      </c>
+      <c r="L13">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>23300</v>
+      </c>
+      <c r="B14">
+        <v>233</v>
+      </c>
+      <c r="C14">
+        <v>242</v>
+      </c>
+      <c r="D14">
+        <v>242</v>
+      </c>
+      <c r="E14">
+        <v>391.2121212121212</v>
+      </c>
+      <c r="F14">
+        <v>19.77908292141274</v>
+      </c>
+      <c r="G14">
+        <v>80</v>
+      </c>
+      <c r="H14">
+        <v>168</v>
+      </c>
+      <c r="I14">
+        <v>248</v>
+      </c>
+      <c r="J14">
+        <v>240.75</v>
+      </c>
+      <c r="K14">
+        <v>242</v>
+      </c>
+      <c r="L14">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>23020</v>
+      </c>
+      <c r="B15">
+        <v>230.2</v>
+      </c>
+      <c r="C15">
+        <v>242</v>
+      </c>
+      <c r="D15">
+        <v>242</v>
+      </c>
+      <c r="E15">
+        <v>452.5656565656562</v>
+      </c>
+      <c r="F15">
+        <v>21.27359058940583</v>
+      </c>
+      <c r="G15">
+        <v>92</v>
+      </c>
+      <c r="H15">
+        <v>153</v>
+      </c>
+      <c r="I15">
+        <v>245</v>
+      </c>
+      <c r="J15">
+        <v>217.75</v>
+      </c>
+      <c r="K15">
+        <v>242</v>
+      </c>
+      <c r="L15">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>22941</v>
+      </c>
+      <c r="B16">
+        <v>229.41</v>
+      </c>
+      <c r="C16">
+        <v>242</v>
+      </c>
+      <c r="D16">
+        <v>242</v>
+      </c>
+      <c r="E16">
+        <v>506.7089898989896</v>
+      </c>
+      <c r="F16">
+        <v>22.5101974646823</v>
+      </c>
+      <c r="G16">
+        <v>90</v>
+      </c>
+      <c r="H16">
+        <v>157</v>
+      </c>
+      <c r="I16">
+        <v>247</v>
+      </c>
+      <c r="J16">
+        <v>220.25</v>
+      </c>
+      <c r="K16">
+        <v>242</v>
+      </c>
+      <c r="L16">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>22815</v>
+      </c>
+      <c r="B17">
+        <v>228.15</v>
+      </c>
+      <c r="C17">
+        <v>242</v>
+      </c>
+      <c r="D17">
+        <v>242</v>
+      </c>
+      <c r="E17">
+        <v>584.0277777777785</v>
+      </c>
+      <c r="F17">
+        <v>24.16666666666668</v>
+      </c>
+      <c r="G17">
+        <v>85</v>
+      </c>
+      <c r="H17">
+        <v>158</v>
+      </c>
+      <c r="I17">
+        <v>243</v>
+      </c>
+      <c r="J17">
+        <v>216.25</v>
+      </c>
+      <c r="K17">
+        <v>242</v>
+      </c>
+      <c r="L17">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>22664</v>
+      </c>
+      <c r="B18">
+        <v>226.64</v>
+      </c>
+      <c r="C18">
+        <v>242</v>
+      </c>
+      <c r="D18">
+        <v>242</v>
+      </c>
+      <c r="E18">
+        <v>694.8387878787884</v>
+      </c>
+      <c r="F18">
+        <v>26.35979491344325</v>
+      </c>
+      <c r="G18">
+        <v>91</v>
+      </c>
+      <c r="H18">
+        <v>158</v>
+      </c>
+      <c r="I18">
+        <v>249</v>
+      </c>
+      <c r="J18">
+        <v>216.25</v>
+      </c>
+      <c r="K18">
+        <v>242</v>
+      </c>
+      <c r="L18">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>22484</v>
+      </c>
+      <c r="B19">
+        <v>224.84</v>
+      </c>
+      <c r="C19">
+        <v>242</v>
+      </c>
+      <c r="D19">
+        <v>242</v>
+      </c>
+      <c r="E19">
+        <v>819.8933333333323</v>
+      </c>
+      <c r="F19">
+        <v>28.63377958519155</v>
+      </c>
+      <c r="G19">
+        <v>94</v>
+      </c>
+      <c r="H19">
+        <v>151</v>
+      </c>
+      <c r="I19">
+        <v>245</v>
+      </c>
+      <c r="J19">
+        <v>213.25</v>
+      </c>
+      <c r="K19">
+        <v>242</v>
+      </c>
+      <c r="L19">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>22325</v>
+      </c>
+      <c r="B20">
+        <v>223.25</v>
+      </c>
+      <c r="C20">
+        <v>242</v>
+      </c>
+      <c r="D20">
+        <v>242</v>
+      </c>
+      <c r="E20">
+        <v>893.7853535353536</v>
+      </c>
+      <c r="F20">
+        <v>29.89624313413566</v>
+      </c>
+      <c r="G20">
+        <v>89</v>
+      </c>
+      <c r="H20">
+        <v>156</v>
+      </c>
+      <c r="I20">
+        <v>245</v>
+      </c>
+      <c r="J20">
+        <v>208.75</v>
+      </c>
+      <c r="K20">
+        <v>242</v>
+      </c>
+      <c r="L20">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>22293</v>
+      </c>
+      <c r="B21">
+        <v>222.93</v>
+      </c>
+      <c r="C21">
+        <v>242</v>
+      </c>
+      <c r="D21">
+        <v>242</v>
+      </c>
+      <c r="E21">
+        <v>938.6112121212128</v>
+      </c>
+      <c r="F21">
+        <v>30.6367624288405</v>
+      </c>
+      <c r="G21">
+        <v>92</v>
+      </c>
+      <c r="H21">
+        <v>153</v>
+      </c>
+      <c r="I21">
+        <v>245</v>
+      </c>
+      <c r="J21">
+        <v>203</v>
+      </c>
+      <c r="K21">
+        <v>242</v>
+      </c>
+      <c r="L21">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>22217</v>
+      </c>
+      <c r="B22">
+        <v>222.17</v>
+      </c>
+      <c r="C22">
+        <v>242</v>
+      </c>
+      <c r="D22">
+        <v>242</v>
+      </c>
+      <c r="E22">
+        <v>1002.768787878788</v>
+      </c>
+      <c r="F22">
+        <v>31.66652472057501</v>
+      </c>
+      <c r="G22">
+        <v>98</v>
+      </c>
+      <c r="H22">
+        <v>147</v>
+      </c>
+      <c r="I22">
+        <v>245</v>
+      </c>
+      <c r="J22">
+        <v>203</v>
+      </c>
+      <c r="K22">
+        <v>242</v>
+      </c>
+      <c r="L22">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>22076</v>
+      </c>
+      <c r="B23">
+        <v>220.76</v>
+      </c>
+      <c r="C23">
+        <v>242</v>
+      </c>
+      <c r="D23">
+        <v>242</v>
+      </c>
+      <c r="E23">
+        <v>1064.224646464647</v>
+      </c>
+      <c r="F23">
+        <v>32.62245616848381</v>
+      </c>
+      <c r="G23">
+        <v>94</v>
+      </c>
+      <c r="H23">
+        <v>151</v>
+      </c>
+      <c r="I23">
+        <v>245</v>
+      </c>
+      <c r="J23">
+        <v>199.75</v>
+      </c>
+      <c r="K23">
+        <v>242</v>
+      </c>
+      <c r="L23">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24">
+        <v>22091</v>
+      </c>
+      <c r="B24">
+        <v>220.91</v>
+      </c>
+      <c r="C24">
+        <v>241</v>
+      </c>
+      <c r="D24">
+        <v>242</v>
+      </c>
+      <c r="E24">
+        <v>1042.062525252526</v>
+      </c>
+      <c r="F24">
+        <v>32.28099325071219</v>
+      </c>
+      <c r="G24">
+        <v>95</v>
+      </c>
+      <c r="H24">
+        <v>155</v>
+      </c>
+      <c r="I24">
+        <v>250</v>
+      </c>
+      <c r="J24">
+        <v>194</v>
+      </c>
+      <c r="K24">
+        <v>241</v>
+      </c>
+      <c r="L24">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25">
+        <v>22283</v>
+      </c>
+      <c r="B25">
+        <v>222.83</v>
+      </c>
+      <c r="C25">
+        <v>242</v>
+      </c>
+      <c r="D25">
+        <v>242</v>
+      </c>
+      <c r="E25">
+        <v>1122.102121212121</v>
+      </c>
+      <c r="F25">
+        <v>33.4977927811986</v>
+      </c>
+      <c r="G25">
+        <v>102</v>
+      </c>
+      <c r="H25">
+        <v>151</v>
+      </c>
+      <c r="I25">
+        <v>253</v>
+      </c>
+      <c r="J25">
+        <v>198</v>
+      </c>
+      <c r="K25">
+        <v>242</v>
+      </c>
+      <c r="L25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26">
+        <v>22438</v>
+      </c>
+      <c r="B26">
+        <v>224.38</v>
+      </c>
+      <c r="C26">
+        <v>242</v>
+      </c>
+      <c r="D26">
+        <v>242</v>
+      </c>
+      <c r="E26">
+        <v>1105.04606060606</v>
+      </c>
+      <c r="F26">
+        <v>33.24223308693416</v>
+      </c>
+      <c r="G26">
+        <v>102</v>
+      </c>
+      <c r="H26">
+        <v>153</v>
+      </c>
+      <c r="I26">
+        <v>255</v>
+      </c>
+      <c r="J26">
+        <v>223.25</v>
+      </c>
+      <c r="K26">
+        <v>242</v>
+      </c>
+      <c r="L26">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27">
+        <v>22367</v>
+      </c>
+      <c r="B27">
+        <v>223.67</v>
+      </c>
+      <c r="C27">
+        <v>242</v>
+      </c>
+      <c r="D27">
+        <v>242</v>
+      </c>
+      <c r="E27">
+        <v>1035.011212121211</v>
+      </c>
+      <c r="F27">
+        <v>32.17159013976791</v>
+      </c>
+      <c r="G27">
+        <v>102</v>
+      </c>
+      <c r="H27">
+        <v>151</v>
+      </c>
+      <c r="I27">
+        <v>253</v>
+      </c>
+      <c r="J27">
+        <v>212</v>
+      </c>
+      <c r="K27">
+        <v>242</v>
+      </c>
+      <c r="L27">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28">
+        <v>22616</v>
+      </c>
+      <c r="B28">
+        <v>226.16</v>
+      </c>
+      <c r="C28">
+        <v>242</v>
+      </c>
+      <c r="D28">
+        <v>242</v>
+      </c>
+      <c r="E28">
+        <v>917.2266666666668</v>
+      </c>
+      <c r="F28">
+        <v>30.28575022459683</v>
+      </c>
+      <c r="G28">
+        <v>99</v>
+      </c>
+      <c r="H28">
+        <v>152</v>
+      </c>
+      <c r="I28">
+        <v>251</v>
+      </c>
+      <c r="J28">
+        <v>230.5</v>
+      </c>
+      <c r="K28">
+        <v>242</v>
+      </c>
+      <c r="L28">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29">
+        <v>22855</v>
+      </c>
+      <c r="B29">
+        <v>228.55</v>
+      </c>
+      <c r="C29">
+        <v>242</v>
+      </c>
+      <c r="D29">
+        <v>242</v>
+      </c>
+      <c r="E29">
+        <v>824.9974747474743</v>
+      </c>
+      <c r="F29">
+        <v>28.72276927365247</v>
+      </c>
+      <c r="G29">
+        <v>103</v>
+      </c>
+      <c r="H29">
+        <v>148</v>
+      </c>
+      <c r="I29">
+        <v>251</v>
+      </c>
+      <c r="J29">
+        <v>233.75</v>
+      </c>
+      <c r="K29">
+        <v>242</v>
+      </c>
+      <c r="L29">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30">
+        <v>22842</v>
+      </c>
+      <c r="B30">
+        <v>228.42</v>
+      </c>
+      <c r="C30">
+        <v>242</v>
+      </c>
+      <c r="D30">
+        <v>242</v>
+      </c>
+      <c r="E30">
+        <v>787.6400000000004</v>
+      </c>
+      <c r="F30">
+        <v>28.06492472820835</v>
+      </c>
+      <c r="G30">
+        <v>127</v>
+      </c>
+      <c r="H30">
+        <v>127</v>
+      </c>
+      <c r="I30">
+        <v>254</v>
+      </c>
+      <c r="J30">
+        <v>232.75</v>
+      </c>
+      <c r="K30">
+        <v>242</v>
+      </c>
+      <c r="L30">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31">
+        <v>23191</v>
+      </c>
+      <c r="B31">
+        <v>231.91</v>
+      </c>
+      <c r="C31">
+        <v>242</v>
+      </c>
+      <c r="D31">
+        <v>242</v>
+      </c>
+      <c r="E31">
+        <v>772.5069696969686</v>
+      </c>
+      <c r="F31">
+        <v>27.79400960093683</v>
+      </c>
+      <c r="G31">
+        <v>164</v>
+      </c>
+      <c r="H31">
+        <v>91</v>
+      </c>
+      <c r="I31">
+        <v>255</v>
+      </c>
+      <c r="J31">
+        <v>236.75</v>
+      </c>
+      <c r="K31">
+        <v>242</v>
+      </c>
+      <c r="L31">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32">
+        <v>23082</v>
+      </c>
+      <c r="B32">
+        <v>230.82</v>
+      </c>
+      <c r="C32">
+        <v>242</v>
+      </c>
+      <c r="D32">
+        <v>242</v>
+      </c>
+      <c r="E32">
+        <v>677.9268686868694</v>
+      </c>
+      <c r="F32">
+        <v>26.03702879913277</v>
+      </c>
+      <c r="G32">
+        <v>167</v>
+      </c>
+      <c r="H32">
+        <v>88</v>
+      </c>
+      <c r="I32">
+        <v>255</v>
+      </c>
+      <c r="J32">
+        <v>225.5</v>
+      </c>
+      <c r="K32">
+        <v>242</v>
+      </c>
+      <c r="L32">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33">
+        <v>22426</v>
+      </c>
+      <c r="B33">
+        <v>224.26</v>
+      </c>
+      <c r="C33">
+        <v>242</v>
+      </c>
+      <c r="D33">
+        <v>242</v>
+      </c>
+      <c r="E33">
+        <v>887.4064646464634</v>
+      </c>
+      <c r="F33">
+        <v>29.78936831566697</v>
+      </c>
+      <c r="G33">
+        <v>198</v>
+      </c>
+      <c r="H33">
+        <v>57</v>
+      </c>
+      <c r="I33">
+        <v>255</v>
+      </c>
+      <c r="J33">
+        <v>212</v>
+      </c>
+      <c r="K33">
+        <v>242</v>
+      </c>
+      <c r="L33">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <v>22480</v>
+      </c>
+      <c r="B34">
+        <v>224.8</v>
+      </c>
+      <c r="C34">
+        <v>239.5</v>
+      </c>
+      <c r="D34">
+        <v>242</v>
+      </c>
+      <c r="E34">
+        <v>735.8181818181814</v>
+      </c>
+      <c r="F34">
+        <v>27.12596877197534</v>
+      </c>
+      <c r="G34">
+        <v>139</v>
+      </c>
+      <c r="H34">
+        <v>116</v>
+      </c>
+      <c r="I34">
+        <v>255</v>
+      </c>
+      <c r="J34">
+        <v>217.75</v>
+      </c>
+      <c r="K34">
+        <v>239.5</v>
+      </c>
+      <c r="L34">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>22915</v>
+      </c>
+      <c r="B35">
+        <v>229.15</v>
+      </c>
+      <c r="C35">
+        <v>238</v>
+      </c>
+      <c r="D35">
+        <v>242</v>
+      </c>
+      <c r="E35">
+        <v>529.5227272727271</v>
+      </c>
+      <c r="F35">
+        <v>23.01136083052732</v>
+      </c>
+      <c r="G35">
+        <v>118</v>
+      </c>
+      <c r="H35">
+        <v>136</v>
+      </c>
+      <c r="I35">
+        <v>254</v>
+      </c>
+      <c r="J35">
+        <v>223.75</v>
+      </c>
+      <c r="K35">
+        <v>238</v>
+      </c>
+      <c r="L35">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36">
+        <v>23138</v>
+      </c>
+      <c r="B36">
+        <v>231.38</v>
+      </c>
+      <c r="C36">
+        <v>240.5</v>
+      </c>
+      <c r="D36">
+        <v>242</v>
+      </c>
+      <c r="E36">
+        <v>385.4298989898983</v>
+      </c>
+      <c r="F36">
+        <v>19.63236865459434</v>
+      </c>
+      <c r="G36">
+        <v>103</v>
+      </c>
+      <c r="H36">
+        <v>151</v>
+      </c>
+      <c r="I36">
+        <v>254</v>
+      </c>
+      <c r="J36">
+        <v>226.5</v>
+      </c>
+      <c r="K36">
+        <v>240.5</v>
+      </c>
+      <c r="L36">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37">
+        <v>23344</v>
+      </c>
+      <c r="B37">
+        <v>233.44</v>
+      </c>
+      <c r="C37">
+        <v>241</v>
+      </c>
+      <c r="D37">
+        <v>242</v>
+      </c>
+      <c r="E37">
+        <v>293.6832323232323</v>
+      </c>
+      <c r="F37">
+        <v>17.13718857698754</v>
+      </c>
+      <c r="G37">
+        <v>107</v>
+      </c>
+      <c r="H37">
+        <v>146</v>
+      </c>
+      <c r="I37">
+        <v>253</v>
+      </c>
+      <c r="J37">
+        <v>229</v>
+      </c>
+      <c r="K37">
+        <v>241</v>
+      </c>
+      <c r="L37">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38">
+        <v>23442</v>
+      </c>
+      <c r="B38">
+        <v>234.42</v>
+      </c>
+      <c r="C38">
+        <v>239.5</v>
+      </c>
+      <c r="D38">
+        <v>242</v>
+      </c>
+      <c r="E38">
+        <v>204.5692929292927</v>
+      </c>
+      <c r="F38">
+        <v>14.30277221133346</v>
+      </c>
+      <c r="G38">
+        <v>95</v>
+      </c>
+      <c r="H38">
+        <v>160</v>
+      </c>
+      <c r="I38">
+        <v>255</v>
+      </c>
+      <c r="J38">
+        <v>227.75</v>
+      </c>
+      <c r="K38">
+        <v>239.5</v>
+      </c>
+      <c r="L38">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39">
+        <v>23458</v>
+      </c>
+      <c r="B39">
+        <v>234.58</v>
+      </c>
+      <c r="C39">
+        <v>240</v>
+      </c>
+      <c r="D39">
+        <v>242</v>
+      </c>
+      <c r="E39">
+        <v>181.9632323232325</v>
+      </c>
+      <c r="F39">
+        <v>13.48937479363786</v>
+      </c>
+      <c r="G39">
+        <v>83</v>
+      </c>
+      <c r="H39">
+        <v>172</v>
+      </c>
+      <c r="I39">
+        <v>255</v>
+      </c>
+      <c r="J39">
+        <v>232</v>
+      </c>
+      <c r="K39">
+        <v>240</v>
+      </c>
+      <c r="L39">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40">
+        <v>23433</v>
+      </c>
+      <c r="B40">
+        <v>234.33</v>
+      </c>
+      <c r="C40">
+        <v>240</v>
+      </c>
+      <c r="D40">
+        <v>242</v>
+      </c>
+      <c r="E40">
+        <v>211.0920202020203</v>
+      </c>
+      <c r="F40">
+        <v>14.52900616704461</v>
+      </c>
+      <c r="G40">
+        <v>105</v>
+      </c>
+      <c r="H40">
+        <v>150</v>
+      </c>
+      <c r="I40">
+        <v>255</v>
+      </c>
+      <c r="J40">
+        <v>230.75</v>
+      </c>
+      <c r="K40">
+        <v>240</v>
+      </c>
+      <c r="L40">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41">
+        <v>23392</v>
+      </c>
+      <c r="B41">
+        <v>233.92</v>
+      </c>
+      <c r="C41">
+        <v>240.5</v>
+      </c>
+      <c r="D41">
+        <v>242</v>
+      </c>
+      <c r="E41">
+        <v>249.2258585858587</v>
+      </c>
+      <c r="F41">
+        <v>15.78688881907574</v>
+      </c>
+      <c r="G41">
+        <v>106</v>
+      </c>
+      <c r="H41">
+        <v>149</v>
+      </c>
+      <c r="I41">
+        <v>255</v>
+      </c>
+      <c r="J41">
+        <v>228.5</v>
+      </c>
+      <c r="K41">
+        <v>240.5</v>
+      </c>
+      <c r="L41">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42">
+        <v>23401</v>
+      </c>
+      <c r="B42">
+        <v>234.01</v>
+      </c>
+      <c r="C42">
+        <v>240</v>
+      </c>
+      <c r="D42">
+        <v>242</v>
+      </c>
+      <c r="E42">
+        <v>197.9291919191921</v>
+      </c>
+      <c r="F42">
+        <v>14.06873099889226</v>
+      </c>
+      <c r="G42">
+        <v>90</v>
+      </c>
+      <c r="H42">
+        <v>165</v>
+      </c>
+      <c r="I42">
+        <v>255</v>
+      </c>
+      <c r="J42">
+        <v>228</v>
+      </c>
+      <c r="K42">
+        <v>240</v>
+      </c>
+      <c r="L42">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43">
+        <v>23480</v>
+      </c>
+      <c r="B43">
+        <v>234.8</v>
+      </c>
+      <c r="C43">
+        <v>241</v>
+      </c>
+      <c r="D43">
+        <v>242</v>
+      </c>
+      <c r="E43">
+        <v>162.848484848485</v>
+      </c>
+      <c r="F43">
+        <v>12.76121016394938</v>
+      </c>
+      <c r="G43">
+        <v>83</v>
+      </c>
+      <c r="H43">
+        <v>172</v>
+      </c>
+      <c r="I43">
+        <v>255</v>
+      </c>
+      <c r="J43">
+        <v>229</v>
+      </c>
+      <c r="K43">
+        <v>241</v>
+      </c>
+      <c r="L43">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44">
+        <v>23571</v>
+      </c>
+      <c r="B44">
+        <v>235.71</v>
+      </c>
+      <c r="C44">
+        <v>242</v>
+      </c>
+      <c r="D44">
+        <v>242</v>
+      </c>
+      <c r="E44">
+        <v>176.6726262626263</v>
+      </c>
+      <c r="F44">
+        <v>13.29182554289012</v>
+      </c>
+      <c r="G44">
+        <v>85</v>
+      </c>
+      <c r="H44">
+        <v>170</v>
+      </c>
+      <c r="I44">
+        <v>255</v>
+      </c>
+      <c r="J44">
+        <v>230</v>
+      </c>
+      <c r="K44">
+        <v>242</v>
+      </c>
+      <c r="L44">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45">
+        <v>23496</v>
+      </c>
+      <c r="B45">
+        <v>234.96</v>
+      </c>
+      <c r="C45">
+        <v>241</v>
+      </c>
+      <c r="D45">
+        <v>242</v>
+      </c>
+      <c r="E45">
+        <v>188.5236363636365</v>
+      </c>
+      <c r="F45">
+        <v>13.73039097635739</v>
+      </c>
+      <c r="G45">
+        <v>85</v>
+      </c>
+      <c r="H45">
+        <v>170</v>
+      </c>
+      <c r="I45">
+        <v>255</v>
+      </c>
+      <c r="J45">
+        <v>231</v>
+      </c>
+      <c r="K45">
+        <v>241</v>
+      </c>
+      <c r="L45">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46">
+        <v>23447</v>
+      </c>
+      <c r="B46">
+        <v>234.47</v>
+      </c>
+      <c r="C46">
+        <v>239</v>
+      </c>
+      <c r="D46">
+        <v>242</v>
+      </c>
+      <c r="E46">
+        <v>203.140505050505</v>
+      </c>
+      <c r="F46">
+        <v>14.25273675651469</v>
+      </c>
+      <c r="G46">
+        <v>94</v>
+      </c>
+      <c r="H46">
+        <v>161</v>
+      </c>
+      <c r="I46">
+        <v>255</v>
+      </c>
+      <c r="J46">
+        <v>230</v>
+      </c>
+      <c r="K46">
+        <v>239</v>
+      </c>
+      <c r="L46">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47">
+        <v>23470</v>
+      </c>
+      <c r="B47">
+        <v>234.7</v>
+      </c>
+      <c r="C47">
+        <v>240</v>
+      </c>
+      <c r="D47">
+        <v>242</v>
+      </c>
+      <c r="E47">
+        <v>208.9595959595961</v>
+      </c>
+      <c r="F47">
+        <v>14.45543482430038</v>
+      </c>
+      <c r="G47">
+        <v>99</v>
+      </c>
+      <c r="H47">
+        <v>156</v>
+      </c>
+      <c r="I47">
+        <v>255</v>
+      </c>
+      <c r="J47">
+        <v>230</v>
+      </c>
+      <c r="K47">
+        <v>240</v>
+      </c>
+      <c r="L47">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48">
+        <v>23439</v>
+      </c>
+      <c r="B48">
+        <v>234.39</v>
+      </c>
+      <c r="C48">
+        <v>240</v>
+      </c>
+      <c r="D48">
+        <v>242</v>
+      </c>
+      <c r="E48">
+        <v>201.1291919191921</v>
+      </c>
+      <c r="F48">
+        <v>14.182002394556</v>
+      </c>
+      <c r="G48">
+        <v>100</v>
+      </c>
+      <c r="H48">
+        <v>152</v>
+      </c>
+      <c r="I48">
+        <v>252</v>
+      </c>
+      <c r="J48">
+        <v>230</v>
+      </c>
+      <c r="K48">
+        <v>240</v>
+      </c>
+      <c r="L48">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49">
+        <v>23411</v>
+      </c>
+      <c r="B49">
+        <v>234.11</v>
+      </c>
+      <c r="C49">
+        <v>240</v>
+      </c>
+      <c r="D49">
+        <v>242</v>
+      </c>
+      <c r="E49">
+        <v>195.2908080808083</v>
+      </c>
+      <c r="F49">
+        <v>13.97464876413029</v>
+      </c>
+      <c r="G49">
+        <v>100</v>
+      </c>
+      <c r="H49">
+        <v>151</v>
+      </c>
+      <c r="I49">
+        <v>251</v>
+      </c>
+      <c r="J49">
+        <v>230</v>
+      </c>
+      <c r="K49">
+        <v>240</v>
+      </c>
+      <c r="L49">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50">
+        <v>23474</v>
+      </c>
+      <c r="B50">
+        <v>234.74</v>
+      </c>
+      <c r="C50">
+        <v>241</v>
+      </c>
+      <c r="D50">
+        <v>242</v>
+      </c>
+      <c r="E50">
+        <v>189.7296969696972</v>
+      </c>
+      <c r="F50">
+        <v>13.77424034092977</v>
+      </c>
+      <c r="G50">
+        <v>99</v>
+      </c>
+      <c r="H50">
+        <v>155</v>
+      </c>
+      <c r="I50">
+        <v>254</v>
+      </c>
+      <c r="J50">
+        <v>230.75</v>
+      </c>
+      <c r="K50">
+        <v>241</v>
+      </c>
+      <c r="L50">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51">
+        <v>23479</v>
+      </c>
+      <c r="B51">
+        <v>234.79</v>
+      </c>
+      <c r="C51">
+        <v>241</v>
+      </c>
+      <c r="D51">
+        <v>242</v>
+      </c>
+      <c r="E51">
+        <v>199.6625252525254</v>
+      </c>
+      <c r="F51">
+        <v>14.13019905211973</v>
+      </c>
+      <c r="G51">
+        <v>101</v>
+      </c>
+      <c r="H51">
+        <v>153</v>
+      </c>
+      <c r="I51">
+        <v>254</v>
+      </c>
+      <c r="J51">
+        <v>230.75</v>
+      </c>
+      <c r="K51">
+        <v>241</v>
+      </c>
+      <c r="L51">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52">
+        <v>23494</v>
+      </c>
+      <c r="B52">
+        <v>234.94</v>
+      </c>
+      <c r="C52">
+        <v>241.5</v>
+      </c>
+      <c r="D52">
+        <v>242</v>
+      </c>
+      <c r="E52">
+        <v>209.4711111111111</v>
+      </c>
+      <c r="F52">
+        <v>14.47311684161746</v>
+      </c>
+      <c r="G52">
+        <v>100</v>
+      </c>
+      <c r="H52">
+        <v>155</v>
+      </c>
+      <c r="I52">
+        <v>255</v>
+      </c>
+      <c r="J52">
+        <v>230.75</v>
+      </c>
+      <c r="K52">
+        <v>241.5</v>
+      </c>
+      <c r="L52">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53">
+        <v>23497</v>
+      </c>
+      <c r="B53">
+        <v>234.97</v>
+      </c>
+      <c r="C53">
+        <v>241.5</v>
+      </c>
+      <c r="D53">
+        <v>242</v>
+      </c>
+      <c r="E53">
+        <v>192.0697979797981</v>
+      </c>
+      <c r="F53">
+        <v>13.85892484934521</v>
+      </c>
+      <c r="G53">
+        <v>83</v>
+      </c>
+      <c r="H53">
+        <v>172</v>
+      </c>
+      <c r="I53">
+        <v>255</v>
+      </c>
+      <c r="J53">
+        <v>231</v>
+      </c>
+      <c r="K53">
+        <v>241.5</v>
+      </c>
+      <c r="L53">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54">
+        <v>23501</v>
+      </c>
+      <c r="B54">
+        <v>235.01</v>
+      </c>
+      <c r="C54">
+        <v>241</v>
+      </c>
+      <c r="D54">
+        <v>242</v>
+      </c>
+      <c r="E54">
+        <v>149.7877777777778</v>
+      </c>
+      <c r="F54">
+        <v>12.23878171133785</v>
+      </c>
+      <c r="G54">
+        <v>78</v>
+      </c>
+      <c r="H54">
+        <v>177</v>
+      </c>
+      <c r="I54">
+        <v>255</v>
+      </c>
+      <c r="J54">
+        <v>230.75</v>
+      </c>
+      <c r="K54">
+        <v>241</v>
+      </c>
+      <c r="L54">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55">
+        <v>23504</v>
+      </c>
+      <c r="B55">
+        <v>235.04</v>
+      </c>
+      <c r="C55">
+        <v>241</v>
+      </c>
+      <c r="D55">
+        <v>242</v>
+      </c>
+      <c r="E55">
+        <v>136.0185858585859</v>
+      </c>
+      <c r="F55">
+        <v>11.66270062458031</v>
+      </c>
+      <c r="G55">
+        <v>78</v>
+      </c>
+      <c r="H55">
+        <v>177</v>
+      </c>
+      <c r="I55">
+        <v>255</v>
+      </c>
+      <c r="J55">
+        <v>231</v>
+      </c>
+      <c r="K55">
+        <v>241</v>
+      </c>
+      <c r="L55">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56">
+        <v>23457</v>
+      </c>
+      <c r="B56">
+        <v>234.57</v>
+      </c>
+      <c r="C56">
+        <v>240.5</v>
+      </c>
+      <c r="D56">
+        <v>242</v>
+      </c>
+      <c r="E56">
+        <v>160.8334343434344</v>
+      </c>
+      <c r="F56">
+        <v>12.68201223558133</v>
+      </c>
+      <c r="G56">
+        <v>90</v>
+      </c>
+      <c r="H56">
+        <v>165</v>
+      </c>
+      <c r="I56">
+        <v>255</v>
+      </c>
+      <c r="J56">
+        <v>231</v>
+      </c>
+      <c r="K56">
+        <v>240.5</v>
+      </c>
+      <c r="L56">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57">
+        <v>23423</v>
+      </c>
+      <c r="B57">
+        <v>234.23</v>
+      </c>
+      <c r="C57">
+        <v>239</v>
+      </c>
+      <c r="D57">
+        <v>242</v>
+      </c>
+      <c r="E57">
+        <v>171.2293939393937</v>
+      </c>
+      <c r="F57">
+        <v>13.08546498751167</v>
+      </c>
+      <c r="G57">
+        <v>89</v>
+      </c>
+      <c r="H57">
+        <v>166</v>
+      </c>
+      <c r="I57">
+        <v>255</v>
+      </c>
+      <c r="J57">
+        <v>231</v>
+      </c>
+      <c r="K57">
+        <v>239</v>
+      </c>
+      <c r="L57">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58">
+        <v>23415</v>
+      </c>
+      <c r="B58">
+        <v>234.15</v>
+      </c>
+      <c r="C58">
+        <v>239.5</v>
+      </c>
+      <c r="D58">
+        <v>242</v>
+      </c>
+      <c r="E58">
+        <v>185.4015151515154</v>
+      </c>
+      <c r="F58">
+        <v>13.61622249933936</v>
+      </c>
+      <c r="G58">
+        <v>86</v>
+      </c>
+      <c r="H58">
+        <v>169</v>
+      </c>
+      <c r="I58">
+        <v>255</v>
+      </c>
+      <c r="J58">
+        <v>231.75</v>
+      </c>
+      <c r="K58">
+        <v>239.5</v>
+      </c>
+      <c r="L58">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59">
+        <v>23378</v>
+      </c>
+      <c r="B59">
+        <v>233.78</v>
+      </c>
+      <c r="C59">
+        <v>240</v>
+      </c>
+      <c r="D59">
+        <v>242</v>
+      </c>
+      <c r="E59">
+        <v>218.0521212121212</v>
+      </c>
+      <c r="F59">
+        <v>14.76658800170578</v>
+      </c>
+      <c r="G59">
+        <v>92</v>
+      </c>
+      <c r="H59">
+        <v>163</v>
+      </c>
+      <c r="I59">
+        <v>255</v>
+      </c>
+      <c r="J59">
+        <v>231</v>
+      </c>
+      <c r="K59">
+        <v>240</v>
+      </c>
+      <c r="L59">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60">
+        <v>23374</v>
+      </c>
+      <c r="B60">
+        <v>233.74</v>
+      </c>
+      <c r="C60">
+        <v>240</v>
+      </c>
+      <c r="D60">
+        <v>242</v>
+      </c>
+      <c r="E60">
+        <v>217.8711111111109</v>
+      </c>
+      <c r="F60">
+        <v>14.76045768636972</v>
+      </c>
+      <c r="G60">
+        <v>99</v>
+      </c>
+      <c r="H60">
+        <v>156</v>
+      </c>
+      <c r="I60">
+        <v>255</v>
+      </c>
+      <c r="J60">
+        <v>231</v>
+      </c>
+      <c r="K60">
+        <v>240</v>
+      </c>
+      <c r="L60">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61">
+        <v>23386</v>
+      </c>
+      <c r="B61">
+        <v>233.86</v>
+      </c>
+      <c r="C61">
+        <v>239</v>
+      </c>
+      <c r="D61">
+        <v>242</v>
+      </c>
+      <c r="E61">
+        <v>207.4953535353538</v>
+      </c>
+      <c r="F61">
+        <v>14.4046990088427</v>
+      </c>
+      <c r="G61">
+        <v>106</v>
+      </c>
+      <c r="H61">
+        <v>149</v>
+      </c>
+      <c r="I61">
+        <v>255</v>
+      </c>
+      <c r="J61">
+        <v>231</v>
+      </c>
+      <c r="K61">
+        <v>239</v>
+      </c>
+      <c r="L61">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62">
+        <v>23391</v>
+      </c>
+      <c r="B62">
+        <v>233.91</v>
+      </c>
+      <c r="C62">
+        <v>239</v>
+      </c>
+      <c r="D62">
+        <v>242</v>
+      </c>
+      <c r="E62">
+        <v>195.0322222222225</v>
+      </c>
+      <c r="F62">
+        <v>13.96539373674164</v>
+      </c>
+      <c r="G62">
+        <v>80</v>
+      </c>
+      <c r="H62">
+        <v>174</v>
+      </c>
+      <c r="I62">
+        <v>254</v>
+      </c>
+      <c r="J62">
+        <v>231.5</v>
+      </c>
+      <c r="K62">
+        <v>239</v>
+      </c>
+      <c r="L62">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63">
+        <v>23373</v>
+      </c>
+      <c r="B63">
+        <v>233.73</v>
+      </c>
+      <c r="C63">
+        <v>239</v>
+      </c>
+      <c r="D63">
+        <v>242</v>
+      </c>
+      <c r="E63">
+        <v>181.0879797979796</v>
+      </c>
+      <c r="F63">
+        <v>13.45689339327542</v>
+      </c>
+      <c r="G63">
+        <v>83</v>
+      </c>
+      <c r="H63">
+        <v>171</v>
+      </c>
+      <c r="I63">
+        <v>254</v>
+      </c>
+      <c r="J63">
+        <v>231.5</v>
+      </c>
+      <c r="K63">
+        <v>239</v>
+      </c>
+      <c r="L63">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64">
+        <v>23345</v>
+      </c>
+      <c r="B64">
+        <v>233.45</v>
+      </c>
+      <c r="C64">
+        <v>239.5</v>
+      </c>
+      <c r="D64">
+        <v>242</v>
+      </c>
+      <c r="E64">
+        <v>220.4520202020203</v>
+      </c>
+      <c r="F64">
+        <v>14.84762675318922</v>
+      </c>
+      <c r="G64">
+        <v>92</v>
+      </c>
+      <c r="H64">
+        <v>163</v>
+      </c>
+      <c r="I64">
+        <v>255</v>
+      </c>
+      <c r="J64">
+        <v>232</v>
+      </c>
+      <c r="K64">
+        <v>239.5</v>
+      </c>
+      <c r="L64">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65">
+        <v>23362</v>
+      </c>
+      <c r="B65">
+        <v>233.62</v>
+      </c>
+      <c r="C65">
+        <v>239.5</v>
+      </c>
+      <c r="D65">
+        <v>242</v>
+      </c>
+      <c r="E65">
+        <v>200.7430303030301</v>
+      </c>
+      <c r="F65">
+        <v>14.16838135790501</v>
+      </c>
+      <c r="G65">
+        <v>79</v>
+      </c>
+      <c r="H65">
+        <v>175</v>
+      </c>
+      <c r="I65">
+        <v>254</v>
+      </c>
+      <c r="J65">
+        <v>231.75</v>
+      </c>
+      <c r="K65">
+        <v>239.5</v>
+      </c>
+      <c r="L65">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66">
+        <v>23378</v>
+      </c>
+      <c r="B66">
+        <v>233.78</v>
+      </c>
+      <c r="C66">
+        <v>241</v>
+      </c>
+      <c r="D66">
+        <v>242</v>
+      </c>
+      <c r="E66">
+        <v>174.6177777777778</v>
+      </c>
+      <c r="F66">
+        <v>13.21430201629196</v>
+      </c>
+      <c r="G66">
+        <v>83</v>
+      </c>
+      <c r="H66">
+        <v>171</v>
+      </c>
+      <c r="I66">
+        <v>254</v>
+      </c>
+      <c r="J66">
+        <v>231</v>
+      </c>
+      <c r="K66">
+        <v>241</v>
+      </c>
+      <c r="L66">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67">
+        <v>23324</v>
+      </c>
+      <c r="B67">
+        <v>233.24</v>
+      </c>
+      <c r="C67">
+        <v>240</v>
+      </c>
+      <c r="D67">
+        <v>242</v>
+      </c>
+      <c r="E67">
+        <v>216.1640404040405</v>
+      </c>
+      <c r="F67">
+        <v>14.7025181654042</v>
+      </c>
+      <c r="G67">
+        <v>91</v>
+      </c>
+      <c r="H67">
+        <v>164</v>
+      </c>
+      <c r="I67">
+        <v>255</v>
+      </c>
+      <c r="J67">
+        <v>229</v>
+      </c>
+      <c r="K67">
+        <v>240</v>
+      </c>
+      <c r="L67">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68">
+        <v>23285</v>
+      </c>
+      <c r="B68">
+        <v>232.85</v>
+      </c>
+      <c r="C68">
+        <v>241.5</v>
+      </c>
+      <c r="D68">
+        <v>242</v>
+      </c>
+      <c r="E68">
+        <v>220.4924242424242</v>
+      </c>
+      <c r="F68">
+        <v>14.84898731370002</v>
+      </c>
+      <c r="G68">
+        <v>107</v>
+      </c>
+      <c r="H68">
+        <v>148</v>
+      </c>
+      <c r="I68">
+        <v>255</v>
+      </c>
+      <c r="J68">
+        <v>226.75</v>
+      </c>
+      <c r="K68">
+        <v>241.5</v>
+      </c>
+      <c r="L68">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69">
+        <v>23258</v>
+      </c>
+      <c r="B69">
+        <v>232.58</v>
+      </c>
+      <c r="C69">
+        <v>242</v>
+      </c>
+      <c r="D69">
+        <v>242</v>
+      </c>
+      <c r="E69">
+        <v>229.9026262626257</v>
+      </c>
+      <c r="F69">
+        <v>15.16254023119562</v>
+      </c>
+      <c r="G69">
+        <v>89</v>
+      </c>
+      <c r="H69">
+        <v>162</v>
+      </c>
+      <c r="I69">
+        <v>251</v>
+      </c>
+      <c r="J69">
+        <v>225.75</v>
+      </c>
+      <c r="K69">
+        <v>242</v>
+      </c>
+      <c r="L69">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70">
+        <v>23258</v>
+      </c>
+      <c r="B70">
+        <v>232.58</v>
+      </c>
+      <c r="C70">
+        <v>242</v>
+      </c>
+      <c r="D70">
+        <v>242</v>
+      </c>
+      <c r="E70">
+        <v>193.4783838383833</v>
+      </c>
+      <c r="F70">
+        <v>13.90965074465866</v>
+      </c>
+      <c r="G70">
+        <v>89</v>
+      </c>
+      <c r="H70">
+        <v>157</v>
+      </c>
+      <c r="I70">
+        <v>246</v>
+      </c>
+      <c r="J70">
+        <v>226</v>
+      </c>
+      <c r="K70">
+        <v>242</v>
+      </c>
+      <c r="L70">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71">
+        <v>23289</v>
+      </c>
+      <c r="B71">
+        <v>232.89</v>
+      </c>
+      <c r="C71">
+        <v>241</v>
+      </c>
+      <c r="D71">
+        <v>242</v>
+      </c>
+      <c r="E71">
+        <v>198.6039393939392</v>
+      </c>
+      <c r="F71">
+        <v>14.09269099192696</v>
+      </c>
+      <c r="G71">
+        <v>83</v>
+      </c>
+      <c r="H71">
+        <v>172</v>
+      </c>
+      <c r="I71">
+        <v>255</v>
+      </c>
+      <c r="J71">
+        <v>229.5</v>
+      </c>
+      <c r="K71">
+        <v>241</v>
+      </c>
+      <c r="L71">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72">
+        <v>23269</v>
+      </c>
+      <c r="B72">
+        <v>232.69</v>
+      </c>
+      <c r="C72">
+        <v>242</v>
+      </c>
+      <c r="D72">
+        <v>242</v>
+      </c>
+      <c r="E72">
+        <v>256.3372727272728</v>
+      </c>
+      <c r="F72">
+        <v>16.01053630354939</v>
+      </c>
+      <c r="G72">
+        <v>112</v>
+      </c>
+      <c r="H72">
+        <v>142</v>
+      </c>
+      <c r="I72">
+        <v>254</v>
+      </c>
+      <c r="J72">
+        <v>228</v>
+      </c>
+      <c r="K72">
+        <v>242</v>
+      </c>
+      <c r="L72">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73">
+        <v>23322</v>
+      </c>
+      <c r="B73">
+        <v>233.22</v>
+      </c>
+      <c r="C73">
+        <v>242</v>
+      </c>
+      <c r="D73">
+        <v>242</v>
+      </c>
+      <c r="E73">
+        <v>227.4864646464648</v>
+      </c>
+      <c r="F73">
+        <v>15.08265442972373</v>
+      </c>
+      <c r="G73">
+        <v>95</v>
+      </c>
+      <c r="H73">
+        <v>160</v>
+      </c>
+      <c r="I73">
+        <v>255</v>
+      </c>
+      <c r="J73">
+        <v>227.75</v>
+      </c>
+      <c r="K73">
+        <v>242</v>
+      </c>
+      <c r="L73">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74">
+        <v>23284</v>
+      </c>
+      <c r="B74">
+        <v>232.84</v>
+      </c>
+      <c r="C74">
+        <v>242</v>
+      </c>
+      <c r="D74">
+        <v>242</v>
+      </c>
+      <c r="E74">
+        <v>266.8832323232317</v>
+      </c>
+      <c r="F74">
+        <v>16.33656121474871</v>
+      </c>
+      <c r="G74">
+        <v>97</v>
+      </c>
+      <c r="H74">
+        <v>157</v>
+      </c>
+      <c r="I74">
+        <v>254</v>
+      </c>
+      <c r="J74">
+        <v>226.75</v>
+      </c>
+      <c r="K74">
+        <v>242</v>
+      </c>
+      <c r="L74">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75">
+        <v>23260</v>
+      </c>
+      <c r="B75">
+        <v>232.6</v>
+      </c>
+      <c r="C75">
+        <v>242</v>
+      </c>
+      <c r="D75">
+        <v>242</v>
+      </c>
+      <c r="E75">
+        <v>235.2727272727274</v>
+      </c>
+      <c r="F75">
+        <v>15.33860252020136</v>
+      </c>
+      <c r="G75">
+        <v>83</v>
+      </c>
+      <c r="H75">
+        <v>169</v>
+      </c>
+      <c r="I75">
+        <v>252</v>
+      </c>
+      <c r="J75">
+        <v>224.25</v>
+      </c>
+      <c r="K75">
+        <v>242</v>
+      </c>
+      <c r="L75">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76">
+        <v>23307</v>
+      </c>
+      <c r="B76">
+        <v>233.07</v>
+      </c>
+      <c r="C76">
+        <v>242</v>
+      </c>
+      <c r="D76">
+        <v>242</v>
+      </c>
+      <c r="E76">
+        <v>236.3687878787882</v>
+      </c>
+      <c r="F76">
+        <v>15.3742898333155</v>
+      </c>
+      <c r="G76">
+        <v>84</v>
+      </c>
+      <c r="H76">
+        <v>168</v>
+      </c>
+      <c r="I76">
+        <v>252</v>
+      </c>
+      <c r="J76">
+        <v>226.5</v>
+      </c>
+      <c r="K76">
+        <v>242</v>
+      </c>
+      <c r="L76">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77">
+        <v>23303</v>
+      </c>
+      <c r="B77">
+        <v>233.03</v>
+      </c>
+      <c r="C77">
+        <v>242</v>
+      </c>
+      <c r="D77">
+        <v>242</v>
+      </c>
+      <c r="E77">
+        <v>247.3829292929288</v>
+      </c>
+      <c r="F77">
+        <v>15.72841153114099</v>
+      </c>
+      <c r="G77">
+        <v>85</v>
+      </c>
+      <c r="H77">
+        <v>170</v>
+      </c>
+      <c r="I77">
+        <v>255</v>
+      </c>
+      <c r="J77">
+        <v>224.5</v>
+      </c>
+      <c r="K77">
+        <v>242</v>
+      </c>
+      <c r="L77">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78">
+        <v>23234</v>
+      </c>
+      <c r="B78">
+        <v>232.34</v>
+      </c>
+      <c r="C78">
+        <v>242</v>
+      </c>
+      <c r="D78">
+        <v>242</v>
+      </c>
+      <c r="E78">
+        <v>345.4993939393945</v>
+      </c>
+      <c r="F78">
+        <v>18.58761399264022</v>
+      </c>
+      <c r="G78">
+        <v>110</v>
+      </c>
+      <c r="H78">
+        <v>143</v>
+      </c>
+      <c r="I78">
+        <v>253</v>
+      </c>
+      <c r="J78">
+        <v>222.75</v>
+      </c>
+      <c r="K78">
+        <v>242</v>
+      </c>
+      <c r="L78">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79">
+        <v>23034</v>
+      </c>
+      <c r="B79">
+        <v>230.34</v>
+      </c>
+      <c r="C79">
+        <v>242</v>
+      </c>
+      <c r="D79">
+        <v>242</v>
+      </c>
+      <c r="E79">
+        <v>396.5296969696975</v>
+      </c>
+      <c r="F79">
+        <v>19.91305343159852</v>
+      </c>
+      <c r="G79">
+        <v>93</v>
+      </c>
+      <c r="H79">
+        <v>162</v>
+      </c>
+      <c r="I79">
+        <v>255</v>
+      </c>
+      <c r="J79">
+        <v>216</v>
+      </c>
+      <c r="K79">
+        <v>242</v>
+      </c>
+      <c r="L79">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80">
+        <v>22335</v>
+      </c>
+      <c r="B80">
+        <v>223.35</v>
+      </c>
+      <c r="C80">
+        <v>242</v>
+      </c>
+      <c r="D80">
+        <v>242</v>
+      </c>
+      <c r="E80">
+        <v>999.4015151515139</v>
+      </c>
+      <c r="F80">
+        <v>31.61331230908134</v>
+      </c>
+      <c r="G80">
+        <v>113</v>
+      </c>
+      <c r="H80">
+        <v>139</v>
+      </c>
+      <c r="I80">
+        <v>252</v>
+      </c>
+      <c r="J80">
+        <v>210.75</v>
+      </c>
+      <c r="K80">
+        <v>242</v>
+      </c>
+      <c r="L80">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81">
+        <v>21274</v>
+      </c>
+      <c r="B81">
+        <v>212.74</v>
+      </c>
+      <c r="C81">
+        <v>242</v>
+      </c>
+      <c r="D81">
+        <v>242</v>
+      </c>
+      <c r="E81">
+        <v>1801.891313131312</v>
+      </c>
+      <c r="F81">
+        <v>42.44869035825855</v>
+      </c>
+      <c r="G81">
+        <v>131</v>
+      </c>
+      <c r="H81">
+        <v>116</v>
+      </c>
+      <c r="I81">
+        <v>247</v>
+      </c>
+      <c r="J81">
+        <v>187</v>
+      </c>
+      <c r="K81">
+        <v>242</v>
+      </c>
+      <c r="L81">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82">
+        <v>21734</v>
+      </c>
+      <c r="B82">
+        <v>217.34</v>
+      </c>
+      <c r="C82">
+        <v>241.5</v>
+      </c>
+      <c r="D82">
+        <v>242</v>
+      </c>
+      <c r="E82">
+        <v>1069.216565656566</v>
+      </c>
+      <c r="F82">
+        <v>32.69887713143322</v>
+      </c>
+      <c r="G82">
+        <v>117</v>
+      </c>
+      <c r="H82">
+        <v>129</v>
+      </c>
+      <c r="I82">
+        <v>246</v>
+      </c>
+      <c r="J82">
+        <v>200</v>
+      </c>
+      <c r="K82">
+        <v>241.5</v>
+      </c>
+      <c r="L82">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83">
+        <v>22832</v>
+      </c>
+      <c r="B83">
+        <v>228.32</v>
+      </c>
+      <c r="C83">
+        <v>242</v>
+      </c>
+      <c r="D83">
+        <v>242</v>
+      </c>
+      <c r="E83">
+        <v>281.8561616161618</v>
+      </c>
+      <c r="F83">
+        <v>16.78857235193516</v>
+      </c>
+      <c r="G83">
+        <v>57</v>
+      </c>
+      <c r="H83">
+        <v>189</v>
+      </c>
+      <c r="I83">
+        <v>246</v>
+      </c>
+      <c r="J83">
+        <v>215</v>
+      </c>
+      <c r="K83">
+        <v>242</v>
+      </c>
+      <c r="L83">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84">
+        <v>22561</v>
+      </c>
+      <c r="B84">
+        <v>225.61</v>
+      </c>
+      <c r="C84">
+        <v>242</v>
+      </c>
+      <c r="D84">
+        <v>242</v>
+      </c>
+      <c r="E84">
+        <v>358.9069696969698</v>
+      </c>
+      <c r="F84">
+        <v>18.9448401866305</v>
+      </c>
+      <c r="G84">
+        <v>53</v>
+      </c>
+      <c r="H84">
+        <v>194</v>
+      </c>
+      <c r="I84">
+        <v>247</v>
+      </c>
+      <c r="J84">
+        <v>205</v>
+      </c>
+      <c r="K84">
+        <v>242</v>
+      </c>
+      <c r="L84">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85">
+        <v>22587</v>
+      </c>
+      <c r="B85">
+        <v>225.87</v>
+      </c>
+      <c r="C85">
+        <v>242</v>
+      </c>
+      <c r="D85">
+        <v>242</v>
+      </c>
+      <c r="E85">
+        <v>397.5081818181815</v>
+      </c>
+      <c r="F85">
+        <v>19.93760722399209</v>
+      </c>
+      <c r="G85">
+        <v>52</v>
+      </c>
+      <c r="H85">
+        <v>192</v>
+      </c>
+      <c r="I85">
+        <v>244</v>
+      </c>
+      <c r="J85">
+        <v>203</v>
+      </c>
+      <c r="K85">
+        <v>242</v>
+      </c>
+      <c r="L85">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86">
+        <v>23274</v>
+      </c>
+      <c r="B86">
+        <v>232.74</v>
+      </c>
+      <c r="C86">
+        <v>242</v>
+      </c>
+      <c r="D86">
+        <v>242</v>
+      </c>
+      <c r="E86">
+        <v>190.5983838383836</v>
+      </c>
+      <c r="F86">
+        <v>13.80573735221642</v>
+      </c>
+      <c r="G86">
+        <v>47</v>
+      </c>
+      <c r="H86">
+        <v>200</v>
+      </c>
+      <c r="I86">
+        <v>247</v>
+      </c>
+      <c r="J86">
+        <v>220.75</v>
+      </c>
+      <c r="K86">
+        <v>242</v>
+      </c>
+      <c r="L86">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87">
+        <v>24263</v>
+      </c>
+      <c r="B87">
+        <v>242.63</v>
+      </c>
+      <c r="C87">
+        <v>242</v>
+      </c>
+      <c r="D87">
+        <v>242</v>
+      </c>
+      <c r="E87">
+        <v>11.20515151515151</v>
+      </c>
+      <c r="F87">
+        <v>3.347409672440992</v>
+      </c>
+      <c r="G87">
+        <v>20</v>
+      </c>
+      <c r="H87">
+        <v>235</v>
+      </c>
+      <c r="I87">
+        <v>255</v>
+      </c>
+      <c r="J87">
+        <v>242</v>
+      </c>
+      <c r="K87">
+        <v>242</v>
+      </c>
+      <c r="L87">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88">
+        <v>24225</v>
+      </c>
+      <c r="B88">
+        <v>242.25</v>
+      </c>
+      <c r="C88">
+        <v>242</v>
+      </c>
+      <c r="D88">
+        <v>242</v>
+      </c>
+      <c r="E88">
+        <v>1.967171717171717</v>
+      </c>
+      <c r="F88">
+        <v>1.402558988838515</v>
+      </c>
+      <c r="G88">
+        <v>10</v>
+      </c>
+      <c r="H88">
+        <v>239</v>
+      </c>
+      <c r="I88">
+        <v>249</v>
+      </c>
+      <c r="J88">
+        <v>242</v>
+      </c>
+      <c r="K88">
+        <v>242</v>
+      </c>
+      <c r="L88">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89">
+        <v>24200</v>
+      </c>
+      <c r="B89">
+        <v>242</v>
+      </c>
+      <c r="C89">
+        <v>242</v>
+      </c>
+      <c r="D89">
+        <v>242</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>242</v>
+      </c>
+      <c r="I89">
+        <v>242</v>
+      </c>
+      <c r="J89">
+        <v>242</v>
+      </c>
+      <c r="K89">
+        <v>242</v>
+      </c>
+      <c r="L89">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90">
+        <v>24200</v>
+      </c>
+      <c r="B90">
+        <v>242</v>
+      </c>
+      <c r="C90">
+        <v>242</v>
+      </c>
+      <c r="D90">
+        <v>242</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>242</v>
+      </c>
+      <c r="I90">
+        <v>242</v>
+      </c>
+      <c r="J90">
+        <v>242</v>
+      </c>
+      <c r="K90">
+        <v>242</v>
+      </c>
+      <c r="L90">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91">
+        <v>24200</v>
+      </c>
+      <c r="B91">
+        <v>242</v>
+      </c>
+      <c r="C91">
+        <v>242</v>
+      </c>
+      <c r="D91">
+        <v>242</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>242</v>
+      </c>
+      <c r="I91">
+        <v>242</v>
+      </c>
+      <c r="J91">
+        <v>242</v>
+      </c>
+      <c r="K91">
+        <v>242</v>
+      </c>
+      <c r="L91">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92">
+        <v>24200</v>
+      </c>
+      <c r="B92">
+        <v>242</v>
+      </c>
+      <c r="C92">
+        <v>242</v>
+      </c>
+      <c r="D92">
+        <v>242</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>242</v>
+      </c>
+      <c r="I92">
+        <v>242</v>
+      </c>
+      <c r="J92">
+        <v>242</v>
+      </c>
+      <c r="K92">
+        <v>242</v>
+      </c>
+      <c r="L92">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93">
+        <v>24200</v>
+      </c>
+      <c r="B93">
+        <v>242</v>
+      </c>
+      <c r="C93">
+        <v>242</v>
+      </c>
+      <c r="D93">
+        <v>242</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>242</v>
+      </c>
+      <c r="I93">
+        <v>242</v>
+      </c>
+      <c r="J93">
+        <v>242</v>
+      </c>
+      <c r="K93">
+        <v>242</v>
+      </c>
+      <c r="L93">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94">
+        <v>24200</v>
+      </c>
+      <c r="B94">
+        <v>242</v>
+      </c>
+      <c r="C94">
+        <v>242</v>
+      </c>
+      <c r="D94">
+        <v>242</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>242</v>
+      </c>
+      <c r="I94">
+        <v>242</v>
+      </c>
+      <c r="J94">
+        <v>242</v>
+      </c>
+      <c r="K94">
+        <v>242</v>
+      </c>
+      <c r="L94">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95">
+        <v>24200</v>
+      </c>
+      <c r="B95">
+        <v>242</v>
+      </c>
+      <c r="C95">
+        <v>242</v>
+      </c>
+      <c r="D95">
+        <v>242</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>242</v>
+      </c>
+      <c r="I95">
+        <v>242</v>
+      </c>
+      <c r="J95">
+        <v>242</v>
+      </c>
+      <c r="K95">
+        <v>242</v>
+      </c>
+      <c r="L95">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96">
+        <v>24200</v>
+      </c>
+      <c r="B96">
+        <v>242</v>
+      </c>
+      <c r="C96">
+        <v>242</v>
+      </c>
+      <c r="D96">
+        <v>242</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>242</v>
+      </c>
+      <c r="I96">
+        <v>242</v>
+      </c>
+      <c r="J96">
+        <v>242</v>
+      </c>
+      <c r="K96">
+        <v>242</v>
+      </c>
+      <c r="L96">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97">
+        <v>24200</v>
+      </c>
+      <c r="B97">
+        <v>242</v>
+      </c>
+      <c r="C97">
+        <v>242</v>
+      </c>
+      <c r="D97">
+        <v>242</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>242</v>
+      </c>
+      <c r="I97">
+        <v>242</v>
+      </c>
+      <c r="J97">
+        <v>242</v>
+      </c>
+      <c r="K97">
+        <v>242</v>
+      </c>
+      <c r="L97">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98">
+        <v>24200</v>
+      </c>
+      <c r="B98">
+        <v>242</v>
+      </c>
+      <c r="C98">
+        <v>242</v>
+      </c>
+      <c r="D98">
+        <v>242</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>242</v>
+      </c>
+      <c r="I98">
+        <v>242</v>
+      </c>
+      <c r="J98">
+        <v>242</v>
+      </c>
+      <c r="K98">
+        <v>242</v>
+      </c>
+      <c r="L98">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99">
+        <v>24200</v>
+      </c>
+      <c r="B99">
+        <v>242</v>
+      </c>
+      <c r="C99">
+        <v>242</v>
+      </c>
+      <c r="D99">
+        <v>242</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>242</v>
+      </c>
+      <c r="I99">
+        <v>242</v>
+      </c>
+      <c r="J99">
+        <v>242</v>
+      </c>
+      <c r="K99">
+        <v>242</v>
+      </c>
+      <c r="L99">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100">
+        <v>24200</v>
+      </c>
+      <c r="B100">
+        <v>242</v>
+      </c>
+      <c r="C100">
+        <v>242</v>
+      </c>
+      <c r="D100">
+        <v>242</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>242</v>
+      </c>
+      <c r="I100">
+        <v>242</v>
+      </c>
+      <c r="J100">
+        <v>242</v>
+      </c>
+      <c r="K100">
+        <v>242</v>
+      </c>
+      <c r="L100">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101">
+        <v>24200</v>
+      </c>
+      <c r="B101">
+        <v>242</v>
+      </c>
+      <c r="C101">
+        <v>242</v>
+      </c>
+      <c r="D101">
+        <v>242</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>242</v>
+      </c>
+      <c r="I101">
+        <v>242</v>
+      </c>
+      <c r="J101">
+        <v>242</v>
+      </c>
+      <c r="K101">
+        <v>242</v>
+      </c>
+      <c r="L101">
         <v>242</v>
       </c>
     </row>

--- a/RGB_img_corpus_one/0.3.dataStadictist/Estadisticas_descarga3_RGB_Vector.xlsx
+++ b/RGB_img_corpus_one/0.3.dataStadictist/Estadisticas_descarga3_RGB_Vector.xlsx
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:L201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,7 +453,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>24200</v>
+        <v>48400</v>
       </c>
       <c r="B2">
         <v>242</v>
@@ -491,7 +491,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>24200</v>
+        <v>48400</v>
       </c>
       <c r="B3">
         <v>242</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>24200</v>
+        <v>48400</v>
       </c>
       <c r="B4">
         <v>242</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>24200</v>
+        <v>48400</v>
       </c>
       <c r="B5">
         <v>242</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6">
-        <v>24200</v>
+        <v>48400</v>
       </c>
       <c r="B6">
         <v>242</v>
@@ -643,10 +643,10 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7">
-        <v>24204</v>
+        <v>48400</v>
       </c>
       <c r="B7">
-        <v>242.04</v>
+        <v>242</v>
       </c>
       <c r="C7">
         <v>242</v>
@@ -655,19 +655,19 @@
         <v>242</v>
       </c>
       <c r="E7">
-        <v>0.1802020202020204</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4245020850384841</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I7">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="J7">
         <v>242</v>
@@ -681,10 +681,10 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8">
-        <v>24196</v>
+        <v>48400</v>
       </c>
       <c r="B8">
-        <v>241.96</v>
+        <v>242</v>
       </c>
       <c r="C8">
         <v>242</v>
@@ -693,16 +693,16 @@
         <v>242</v>
       </c>
       <c r="E8">
-        <v>0.0589898989898988</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.2428783625395618</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I8">
         <v>242</v>
@@ -719,10 +719,10 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9">
-        <v>24206</v>
+        <v>48400</v>
       </c>
       <c r="B9">
-        <v>242.06</v>
+        <v>242</v>
       </c>
       <c r="C9">
         <v>242</v>
@@ -731,19 +731,19 @@
         <v>242</v>
       </c>
       <c r="E9">
-        <v>0.09737373737373747</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.3120476524086305</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>242</v>
       </c>
       <c r="I9">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J9">
         <v>242</v>
@@ -757,10 +757,10 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10">
-        <v>24195</v>
+        <v>48400</v>
       </c>
       <c r="B10">
-        <v>241.95</v>
+        <v>242</v>
       </c>
       <c r="C10">
         <v>242</v>
@@ -769,19 +769,19 @@
         <v>242</v>
       </c>
       <c r="E10">
-        <v>0.6540404040404024</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8087276451565152</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="I10">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J10">
         <v>242</v>
@@ -795,10 +795,10 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11">
-        <v>24210</v>
+        <v>48400</v>
       </c>
       <c r="B11">
-        <v>242.1</v>
+        <v>242</v>
       </c>
       <c r="C11">
         <v>242</v>
@@ -807,19 +807,19 @@
         <v>242</v>
       </c>
       <c r="E11">
-        <v>0.2525252525252522</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5025189076296057</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>242</v>
       </c>
       <c r="I11">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="J11">
         <v>242</v>
@@ -833,10 +833,10 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12">
-        <v>24171</v>
+        <v>48400</v>
       </c>
       <c r="B12">
-        <v>241.71</v>
+        <v>242</v>
       </c>
       <c r="C12">
         <v>242</v>
@@ -845,16 +845,16 @@
         <v>242</v>
       </c>
       <c r="E12">
-        <v>7.94535353535355</v>
+        <v>0.03015075376884422</v>
       </c>
       <c r="F12">
-        <v>2.818750349951828</v>
+        <v>0.1736397240519698</v>
       </c>
       <c r="G12">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="I12">
         <v>243</v>
@@ -871,10 +871,10 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13">
-        <v>23856</v>
+        <v>48409</v>
       </c>
       <c r="B13">
-        <v>238.56</v>
+        <v>242.045</v>
       </c>
       <c r="C13">
         <v>242</v>
@@ -883,19 +883,19 @@
         <v>242</v>
       </c>
       <c r="E13">
-        <v>107.0367676767677</v>
+        <v>0.4351507537688462</v>
       </c>
       <c r="F13">
-        <v>10.34585751287769</v>
+        <v>0.6596595741508238</v>
       </c>
       <c r="G13">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="H13">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="I13">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J13">
         <v>242</v>
@@ -909,10 +909,10 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14">
-        <v>23300</v>
+        <v>48393</v>
       </c>
       <c r="B14">
-        <v>233</v>
+        <v>241.965</v>
       </c>
       <c r="C14">
         <v>242</v>
@@ -921,22 +921,22 @@
         <v>242</v>
       </c>
       <c r="E14">
-        <v>391.2121212121212</v>
+        <v>0.04399497487437188</v>
       </c>
       <c r="F14">
-        <v>19.77908292141274</v>
+        <v>0.2097497911187801</v>
       </c>
       <c r="G14">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>168</v>
+        <v>240</v>
       </c>
       <c r="I14">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="J14">
-        <v>240.75</v>
+        <v>242</v>
       </c>
       <c r="K14">
         <v>242</v>
@@ -947,10 +947,10 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15">
-        <v>23020</v>
+        <v>48400</v>
       </c>
       <c r="B15">
-        <v>230.2</v>
+        <v>242</v>
       </c>
       <c r="C15">
         <v>242</v>
@@ -959,22 +959,22 @@
         <v>242</v>
       </c>
       <c r="E15">
-        <v>452.5656565656562</v>
+        <v>0.09045226130653267</v>
       </c>
       <c r="F15">
-        <v>21.27359058940583</v>
+        <v>0.3007528242702513</v>
       </c>
       <c r="G15">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="H15">
-        <v>153</v>
+        <v>240</v>
       </c>
       <c r="I15">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J15">
-        <v>217.75</v>
+        <v>242</v>
       </c>
       <c r="K15">
         <v>242</v>
@@ -985,10 +985,10 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16">
-        <v>22941</v>
+        <v>48412</v>
       </c>
       <c r="B16">
-        <v>229.41</v>
+        <v>242.06</v>
       </c>
       <c r="C16">
         <v>242</v>
@@ -997,22 +997,22 @@
         <v>242</v>
       </c>
       <c r="E16">
-        <v>506.7089898989896</v>
+        <v>0.1471356783919591</v>
       </c>
       <c r="F16">
-        <v>22.5101974646823</v>
+        <v>0.3835826878157552</v>
       </c>
       <c r="G16">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="H16">
-        <v>157</v>
+        <v>241</v>
       </c>
       <c r="I16">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J16">
-        <v>220.25</v>
+        <v>242</v>
       </c>
       <c r="K16">
         <v>242</v>
@@ -1023,10 +1023,10 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17">
-        <v>22815</v>
+        <v>48412</v>
       </c>
       <c r="B17">
-        <v>228.15</v>
+        <v>242.06</v>
       </c>
       <c r="C17">
         <v>242</v>
@@ -1035,22 +1035,22 @@
         <v>242</v>
       </c>
       <c r="E17">
-        <v>584.0277777777785</v>
+        <v>0.1169849246231149</v>
       </c>
       <c r="F17">
-        <v>24.16666666666668</v>
+        <v>0.3420305901861921</v>
       </c>
       <c r="G17">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>158</v>
+        <v>242</v>
       </c>
       <c r="I17">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="J17">
-        <v>216.25</v>
+        <v>242</v>
       </c>
       <c r="K17">
         <v>242</v>
@@ -1061,10 +1061,10 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18">
-        <v>22664</v>
+        <v>48392</v>
       </c>
       <c r="B18">
-        <v>226.64</v>
+        <v>241.96</v>
       </c>
       <c r="C18">
         <v>242</v>
@@ -1073,22 +1073,22 @@
         <v>242</v>
       </c>
       <c r="E18">
-        <v>694.8387878787884</v>
+        <v>0.3401005025125614</v>
       </c>
       <c r="F18">
-        <v>26.35979491344325</v>
+        <v>0.5831813633103868</v>
       </c>
       <c r="G18">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="H18">
-        <v>158</v>
+        <v>238</v>
       </c>
       <c r="I18">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="J18">
-        <v>216.25</v>
+        <v>242</v>
       </c>
       <c r="K18">
         <v>242</v>
@@ -1099,10 +1099,10 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19">
-        <v>22484</v>
+        <v>48399</v>
       </c>
       <c r="B19">
-        <v>224.84</v>
+        <v>241.995</v>
       </c>
       <c r="C19">
         <v>242</v>
@@ -1111,22 +1111,22 @@
         <v>242</v>
       </c>
       <c r="E19">
-        <v>819.8933333333323</v>
+        <v>0.4974623115577861</v>
       </c>
       <c r="F19">
-        <v>28.63377958519155</v>
+        <v>0.7053100818489596</v>
       </c>
       <c r="G19">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="H19">
-        <v>151</v>
+        <v>238</v>
       </c>
       <c r="I19">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="J19">
-        <v>213.25</v>
+        <v>242</v>
       </c>
       <c r="K19">
         <v>242</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20">
-        <v>22325</v>
+        <v>48419</v>
       </c>
       <c r="B20">
-        <v>223.25</v>
+        <v>242.095</v>
       </c>
       <c r="C20">
         <v>242</v>
@@ -1149,22 +1149,22 @@
         <v>242</v>
       </c>
       <c r="E20">
-        <v>893.7853535353536</v>
+        <v>0.4783668341708516</v>
       </c>
       <c r="F20">
-        <v>29.89624313413566</v>
+        <v>0.6916406828482919</v>
       </c>
       <c r="G20">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="H20">
-        <v>156</v>
+        <v>240</v>
       </c>
       <c r="I20">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="J20">
-        <v>208.75</v>
+        <v>242</v>
       </c>
       <c r="K20">
         <v>242</v>
@@ -1175,10 +1175,10 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21">
-        <v>22293</v>
+        <v>48418</v>
       </c>
       <c r="B21">
-        <v>222.93</v>
+        <v>242.09</v>
       </c>
       <c r="C21">
         <v>242</v>
@@ -1187,22 +1187,22 @@
         <v>242</v>
       </c>
       <c r="E21">
-        <v>938.6112121212128</v>
+        <v>0.454170854271356</v>
       </c>
       <c r="F21">
-        <v>30.6367624288405</v>
+        <v>0.6739219942035992</v>
       </c>
       <c r="G21">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="H21">
-        <v>153</v>
+        <v>239</v>
       </c>
       <c r="I21">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="J21">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="K21">
         <v>242</v>
@@ -1213,10 +1213,10 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22">
-        <v>22217</v>
+        <v>48372</v>
       </c>
       <c r="B22">
-        <v>222.17</v>
+        <v>241.86</v>
       </c>
       <c r="C22">
         <v>242</v>
@@ -1225,22 +1225,22 @@
         <v>242</v>
       </c>
       <c r="E22">
-        <v>1002.768787878788</v>
+        <v>3.739095477386922</v>
       </c>
       <c r="F22">
-        <v>31.66652472057501</v>
+        <v>1.933674087685648</v>
       </c>
       <c r="G22">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="H22">
-        <v>147</v>
+        <v>221</v>
       </c>
       <c r="I22">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J22">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="K22">
         <v>242</v>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23">
-        <v>22076</v>
+        <v>48276</v>
       </c>
       <c r="B23">
-        <v>220.76</v>
+        <v>241.38</v>
       </c>
       <c r="C23">
         <v>242</v>
@@ -1263,22 +1263,22 @@
         <v>242</v>
       </c>
       <c r="E23">
-        <v>1064.224646464647</v>
+        <v>20.19658291457286</v>
       </c>
       <c r="F23">
-        <v>32.62245616848381</v>
+        <v>4.494060849006481</v>
       </c>
       <c r="G23">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="H23">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="I23">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="J23">
-        <v>199.75</v>
+        <v>242</v>
       </c>
       <c r="K23">
         <v>242</v>
@@ -1289,37 +1289,37 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24">
-        <v>22091</v>
+        <v>48069</v>
       </c>
       <c r="B24">
-        <v>220.91</v>
+        <v>240.345</v>
       </c>
       <c r="C24">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D24">
         <v>242</v>
       </c>
       <c r="E24">
-        <v>1042.062525252526</v>
+        <v>58.33766331658303</v>
       </c>
       <c r="F24">
-        <v>32.28099325071219</v>
+        <v>7.63790961694252</v>
       </c>
       <c r="G24">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="H24">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="I24">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J24">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="K24">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L24">
         <v>242</v>
@@ -1327,10 +1327,10 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25">
-        <v>22283</v>
+        <v>47371</v>
       </c>
       <c r="B25">
-        <v>222.83</v>
+        <v>236.855</v>
       </c>
       <c r="C25">
         <v>242</v>
@@ -1339,22 +1339,22 @@
         <v>242</v>
       </c>
       <c r="E25">
-        <v>1122.102121212121</v>
+        <v>216.8381658291454</v>
       </c>
       <c r="F25">
-        <v>33.4977927811986</v>
+        <v>14.72542582844875</v>
       </c>
       <c r="G25">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="H25">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="I25">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J25">
-        <v>198</v>
+        <v>242</v>
       </c>
       <c r="K25">
         <v>242</v>
@@ -1365,10 +1365,10 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26">
-        <v>22438</v>
+        <v>46849</v>
       </c>
       <c r="B26">
-        <v>224.38</v>
+        <v>234.245</v>
       </c>
       <c r="C26">
         <v>242</v>
@@ -1377,22 +1377,22 @@
         <v>242</v>
       </c>
       <c r="E26">
-        <v>1105.04606060606</v>
+        <v>317.4321356783923</v>
       </c>
       <c r="F26">
-        <v>33.24223308693416</v>
+        <v>17.81662526064889</v>
       </c>
       <c r="G26">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="H26">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="I26">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="J26">
-        <v>223.25</v>
+        <v>241</v>
       </c>
       <c r="K26">
         <v>242</v>
@@ -1403,10 +1403,10 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27">
-        <v>22367</v>
+        <v>46438</v>
       </c>
       <c r="B27">
-        <v>223.67</v>
+        <v>232.19</v>
       </c>
       <c r="C27">
         <v>242</v>
@@ -1415,22 +1415,22 @@
         <v>242</v>
       </c>
       <c r="E27">
-        <v>1035.011212121211</v>
+        <v>379.6320603015064</v>
       </c>
       <c r="F27">
-        <v>32.17159013976791</v>
+        <v>19.48414894989018</v>
       </c>
       <c r="G27">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="H27">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="I27">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="J27">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="K27">
         <v>242</v>
@@ -1441,10 +1441,10 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28">
-        <v>22616</v>
+        <v>46137</v>
       </c>
       <c r="B28">
-        <v>226.16</v>
+        <v>230.685</v>
       </c>
       <c r="C28">
         <v>242</v>
@@ -1453,22 +1453,22 @@
         <v>242</v>
       </c>
       <c r="E28">
-        <v>917.2266666666668</v>
+        <v>441.8651005025137</v>
       </c>
       <c r="F28">
-        <v>30.28575022459683</v>
+        <v>21.02058753942224</v>
       </c>
       <c r="G28">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H28">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I28">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J28">
-        <v>230.5</v>
+        <v>225.75</v>
       </c>
       <c r="K28">
         <v>242</v>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29">
-        <v>22855</v>
+        <v>45951</v>
       </c>
       <c r="B29">
-        <v>228.55</v>
+        <v>229.755</v>
       </c>
       <c r="C29">
         <v>242</v>
@@ -1491,22 +1491,22 @@
         <v>242</v>
       </c>
       <c r="E29">
-        <v>824.9974747474743</v>
+        <v>479.190929648242</v>
       </c>
       <c r="F29">
-        <v>28.72276927365247</v>
+        <v>21.89043009281092</v>
       </c>
       <c r="G29">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="H29">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I29">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J29">
-        <v>233.75</v>
+        <v>217.75</v>
       </c>
       <c r="K29">
         <v>242</v>
@@ -1517,10 +1517,10 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30">
-        <v>22842</v>
+        <v>45886</v>
       </c>
       <c r="B30">
-        <v>228.42</v>
+        <v>229.43</v>
       </c>
       <c r="C30">
         <v>242</v>
@@ -1529,22 +1529,22 @@
         <v>242</v>
       </c>
       <c r="E30">
-        <v>787.6400000000004</v>
+        <v>489.0905527638189</v>
       </c>
       <c r="F30">
-        <v>28.06492472820835</v>
+        <v>22.11539176148184</v>
       </c>
       <c r="G30">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="H30">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="I30">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="J30">
-        <v>232.75</v>
+        <v>219</v>
       </c>
       <c r="K30">
         <v>242</v>
@@ -1555,10 +1555,10 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31">
-        <v>23191</v>
+        <v>45820</v>
       </c>
       <c r="B31">
-        <v>231.91</v>
+        <v>229.1</v>
       </c>
       <c r="C31">
         <v>242</v>
@@ -1567,22 +1567,22 @@
         <v>242</v>
       </c>
       <c r="E31">
-        <v>772.5069696969686</v>
+        <v>517.4572864321615</v>
       </c>
       <c r="F31">
-        <v>27.79400960093683</v>
+        <v>22.74768749636238</v>
       </c>
       <c r="G31">
-        <v>164</v>
+        <v>93</v>
       </c>
       <c r="H31">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="I31">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="J31">
-        <v>236.75</v>
+        <v>219.75</v>
       </c>
       <c r="K31">
         <v>242</v>
@@ -1593,10 +1593,10 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32">
-        <v>23082</v>
+        <v>45705</v>
       </c>
       <c r="B32">
-        <v>230.82</v>
+        <v>228.525</v>
       </c>
       <c r="C32">
         <v>242</v>
@@ -1605,22 +1605,22 @@
         <v>242</v>
       </c>
       <c r="E32">
-        <v>677.9268686868694</v>
+        <v>567.7682160804018</v>
       </c>
       <c r="F32">
-        <v>26.03702879913277</v>
+        <v>23.82788736082999</v>
       </c>
       <c r="G32">
-        <v>167</v>
+        <v>88</v>
       </c>
       <c r="H32">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="I32">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="J32">
-        <v>225.5</v>
+        <v>219.5</v>
       </c>
       <c r="K32">
         <v>242</v>
@@ -1631,10 +1631,10 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33">
-        <v>22426</v>
+        <v>45588</v>
       </c>
       <c r="B33">
-        <v>224.26</v>
+        <v>227.94</v>
       </c>
       <c r="C33">
         <v>242</v>
@@ -1643,22 +1643,22 @@
         <v>242</v>
       </c>
       <c r="E33">
-        <v>887.4064646464634</v>
+        <v>621.5843216080407</v>
       </c>
       <c r="F33">
-        <v>29.78936831566697</v>
+        <v>24.93159284137379</v>
       </c>
       <c r="G33">
-        <v>198</v>
+        <v>97</v>
       </c>
       <c r="H33">
-        <v>57</v>
+        <v>155</v>
       </c>
       <c r="I33">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J33">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K33">
         <v>242</v>
@@ -1669,37 +1669,37 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34">
-        <v>22480</v>
+        <v>45413</v>
       </c>
       <c r="B34">
-        <v>224.8</v>
+        <v>227.065</v>
       </c>
       <c r="C34">
-        <v>239.5</v>
+        <v>242</v>
       </c>
       <c r="D34">
         <v>242</v>
       </c>
       <c r="E34">
-        <v>735.8181818181814</v>
+        <v>676.3625879396985</v>
       </c>
       <c r="F34">
-        <v>27.12596877197534</v>
+        <v>26.00697191023396</v>
       </c>
       <c r="G34">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="H34">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="I34">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J34">
-        <v>217.75</v>
+        <v>213.75</v>
       </c>
       <c r="K34">
-        <v>239.5</v>
+        <v>242</v>
       </c>
       <c r="L34">
         <v>242</v>
@@ -1707,37 +1707,37 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35">
-        <v>22915</v>
+        <v>45222</v>
       </c>
       <c r="B35">
-        <v>229.15</v>
+        <v>226.11</v>
       </c>
       <c r="C35">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D35">
         <v>242</v>
       </c>
       <c r="E35">
-        <v>529.5227272727271</v>
+        <v>734.8220100502521</v>
       </c>
       <c r="F35">
-        <v>23.01136083052732</v>
+        <v>27.10760059559407</v>
       </c>
       <c r="G35">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="H35">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="I35">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J35">
-        <v>223.75</v>
+        <v>210.5</v>
       </c>
       <c r="K35">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L35">
         <v>242</v>
@@ -1745,37 +1745,37 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36">
-        <v>23138</v>
+        <v>45021</v>
       </c>
       <c r="B36">
-        <v>231.38</v>
+        <v>225.105</v>
       </c>
       <c r="C36">
-        <v>240.5</v>
+        <v>242</v>
       </c>
       <c r="D36">
         <v>242</v>
       </c>
       <c r="E36">
-        <v>385.4298989898983</v>
+        <v>829.913542713569</v>
       </c>
       <c r="F36">
-        <v>19.63236865459434</v>
+        <v>28.80822005458805</v>
       </c>
       <c r="G36">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H36">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I36">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J36">
-        <v>226.5</v>
+        <v>213.25</v>
       </c>
       <c r="K36">
-        <v>240.5</v>
+        <v>242</v>
       </c>
       <c r="L36">
         <v>242</v>
@@ -1783,37 +1783,37 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37">
-        <v>23344</v>
+        <v>44893</v>
       </c>
       <c r="B37">
-        <v>233.44</v>
+        <v>224.465</v>
       </c>
       <c r="C37">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D37">
         <v>242</v>
       </c>
       <c r="E37">
-        <v>293.6832323232323</v>
+        <v>828.4711306532646</v>
       </c>
       <c r="F37">
-        <v>17.13718857698754</v>
+        <v>28.78317443669591</v>
       </c>
       <c r="G37">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="H37">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I37">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J37">
-        <v>229</v>
+        <v>210.75</v>
       </c>
       <c r="K37">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L37">
         <v>242</v>
@@ -1821,37 +1821,37 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38">
-        <v>23442</v>
+        <v>44729</v>
       </c>
       <c r="B38">
-        <v>234.42</v>
+        <v>223.645</v>
       </c>
       <c r="C38">
-        <v>239.5</v>
+        <v>242</v>
       </c>
       <c r="D38">
         <v>242</v>
       </c>
       <c r="E38">
-        <v>204.5692929292927</v>
+        <v>867.6371608040209</v>
       </c>
       <c r="F38">
-        <v>14.30277221133346</v>
+        <v>29.45568129926756</v>
       </c>
       <c r="G38">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H38">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="I38">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="J38">
-        <v>227.75</v>
+        <v>207.75</v>
       </c>
       <c r="K38">
-        <v>239.5</v>
+        <v>242</v>
       </c>
       <c r="L38">
         <v>242</v>
@@ -1859,37 +1859,37 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39">
-        <v>23458</v>
+        <v>44598</v>
       </c>
       <c r="B39">
-        <v>234.58</v>
+        <v>222.99</v>
       </c>
       <c r="C39">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D39">
         <v>242</v>
       </c>
       <c r="E39">
-        <v>181.9632323232325</v>
+        <v>922.3818090452273</v>
       </c>
       <c r="F39">
-        <v>13.48937479363786</v>
+        <v>30.37073935624925</v>
       </c>
       <c r="G39">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="H39">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="I39">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="J39">
-        <v>232</v>
+        <v>209.75</v>
       </c>
       <c r="K39">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L39">
         <v>242</v>
@@ -1897,37 +1897,37 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40">
-        <v>23433</v>
+        <v>44564</v>
       </c>
       <c r="B40">
-        <v>234.33</v>
+        <v>222.82</v>
       </c>
       <c r="C40">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D40">
         <v>242</v>
       </c>
       <c r="E40">
-        <v>211.0920202020203</v>
+        <v>952.9925628140692</v>
       </c>
       <c r="F40">
-        <v>14.52900616704461</v>
+        <v>30.87057762358957</v>
       </c>
       <c r="G40">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H40">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="I40">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J40">
-        <v>230.75</v>
+        <v>207</v>
       </c>
       <c r="K40">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L40">
         <v>242</v>
@@ -1935,37 +1935,37 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41">
-        <v>23392</v>
+        <v>44568</v>
       </c>
       <c r="B41">
-        <v>233.92</v>
+        <v>222.84</v>
       </c>
       <c r="C41">
-        <v>240.5</v>
+        <v>242</v>
       </c>
       <c r="D41">
         <v>242</v>
       </c>
       <c r="E41">
-        <v>249.2258585858587</v>
+        <v>937.5622110552779</v>
       </c>
       <c r="F41">
-        <v>15.78688881907574</v>
+        <v>30.61963767021546</v>
       </c>
       <c r="G41">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="H41">
         <v>149</v>
       </c>
       <c r="I41">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="J41">
-        <v>228.5</v>
+        <v>205.75</v>
       </c>
       <c r="K41">
-        <v>240.5</v>
+        <v>242</v>
       </c>
       <c r="L41">
         <v>242</v>
@@ -1973,37 +1973,37 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42">
-        <v>23401</v>
+        <v>44488</v>
       </c>
       <c r="B42">
-        <v>234.01</v>
+        <v>222.44</v>
       </c>
       <c r="C42">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D42">
         <v>242</v>
       </c>
       <c r="E42">
-        <v>197.9291919191921</v>
+        <v>976.1169849246223</v>
       </c>
       <c r="F42">
-        <v>14.06873099889226</v>
+        <v>31.24287094561929</v>
       </c>
       <c r="G42">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="H42">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="I42">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="J42">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="K42">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L42">
         <v>242</v>
@@ -2011,37 +2011,37 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43">
-        <v>23480</v>
+        <v>44366</v>
       </c>
       <c r="B43">
-        <v>234.8</v>
+        <v>221.83</v>
       </c>
       <c r="C43">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D43">
         <v>242</v>
       </c>
       <c r="E43">
-        <v>162.848484848485</v>
+        <v>1029.388040201004</v>
       </c>
       <c r="F43">
-        <v>12.76121016394938</v>
+        <v>32.08407767415177</v>
       </c>
       <c r="G43">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="H43">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="I43">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="J43">
-        <v>229</v>
+        <v>201.75</v>
       </c>
       <c r="K43">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L43">
         <v>242</v>
@@ -2049,10 +2049,10 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44">
-        <v>23571</v>
+        <v>44268</v>
       </c>
       <c r="B44">
-        <v>235.71</v>
+        <v>221.34</v>
       </c>
       <c r="C44">
         <v>242</v>
@@ -2061,22 +2061,22 @@
         <v>242</v>
       </c>
       <c r="E44">
-        <v>176.6726262626263</v>
+        <v>1049.371256281405</v>
       </c>
       <c r="F44">
-        <v>13.29182554289012</v>
+        <v>32.39400031304262</v>
       </c>
       <c r="G44">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="H44">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="I44">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="J44">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="K44">
         <v>242</v>
@@ -2087,10 +2087,10 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45">
-        <v>23496</v>
+        <v>44112</v>
       </c>
       <c r="B45">
-        <v>234.96</v>
+        <v>220.56</v>
       </c>
       <c r="C45">
         <v>241</v>
@@ -2099,22 +2099,22 @@
         <v>242</v>
       </c>
       <c r="E45">
-        <v>188.5236363636365</v>
+        <v>1048.860703517589</v>
       </c>
       <c r="F45">
-        <v>13.73039097635739</v>
+        <v>32.38611899437148</v>
       </c>
       <c r="G45">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H45">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="I45">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="J45">
-        <v>231</v>
+        <v>196.75</v>
       </c>
       <c r="K45">
         <v>241</v>
@@ -2125,37 +2125,37 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46">
-        <v>23447</v>
+        <v>44107</v>
       </c>
       <c r="B46">
-        <v>234.47</v>
+        <v>220.535</v>
       </c>
       <c r="C46">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D46">
         <v>242</v>
       </c>
       <c r="E46">
-        <v>203.140505050505</v>
+        <v>1038.461080402012</v>
       </c>
       <c r="F46">
-        <v>14.25273675651469</v>
+        <v>32.22516222460349</v>
       </c>
       <c r="G46">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H46">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="I46">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J46">
-        <v>230</v>
+        <v>195.25</v>
       </c>
       <c r="K46">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L46">
         <v>242</v>
@@ -2163,37 +2163,37 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47">
-        <v>23470</v>
+        <v>44239</v>
       </c>
       <c r="B47">
-        <v>234.7</v>
+        <v>221.195</v>
       </c>
       <c r="C47">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D47">
         <v>242</v>
       </c>
       <c r="E47">
-        <v>208.9595959595961</v>
+        <v>1047.052236180907</v>
       </c>
       <c r="F47">
-        <v>14.45543482430038</v>
+        <v>32.35818654036265</v>
       </c>
       <c r="G47">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H47">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I47">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="J47">
-        <v>230</v>
+        <v>193.75</v>
       </c>
       <c r="K47">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L47">
         <v>242</v>
@@ -2201,37 +2201,37 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48">
-        <v>23439</v>
+        <v>44407</v>
       </c>
       <c r="B48">
-        <v>234.39</v>
+        <v>222.035</v>
       </c>
       <c r="C48">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D48">
         <v>242</v>
       </c>
       <c r="E48">
-        <v>201.1291919191921</v>
+        <v>1131.330427135677</v>
       </c>
       <c r="F48">
-        <v>14.182002394556</v>
+        <v>33.63525571681709</v>
       </c>
       <c r="G48">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H48">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I48">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J48">
-        <v>230</v>
+        <v>188.75</v>
       </c>
       <c r="K48">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L48">
         <v>242</v>
@@ -2239,37 +2239,37 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49">
-        <v>23411</v>
+        <v>44732</v>
       </c>
       <c r="B49">
-        <v>234.11</v>
+        <v>223.66</v>
       </c>
       <c r="C49">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D49">
         <v>242</v>
       </c>
       <c r="E49">
-        <v>195.2908080808083</v>
+        <v>1108.064723618092</v>
       </c>
       <c r="F49">
-        <v>13.97464876413029</v>
+        <v>33.28760615631728</v>
       </c>
       <c r="G49">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H49">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I49">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="J49">
-        <v>230</v>
+        <v>205.75</v>
       </c>
       <c r="K49">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L49">
         <v>242</v>
@@ -2277,37 +2277,37 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50">
-        <v>23474</v>
+        <v>44901</v>
       </c>
       <c r="B50">
-        <v>234.74</v>
+        <v>224.505</v>
       </c>
       <c r="C50">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D50">
         <v>242</v>
       </c>
       <c r="E50">
-        <v>189.7296969696972</v>
+        <v>1088.261281407035</v>
       </c>
       <c r="F50">
-        <v>13.77424034092977</v>
+        <v>32.9888053952706</v>
       </c>
       <c r="G50">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H50">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I50">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J50">
-        <v>230.75</v>
+        <v>218.5</v>
       </c>
       <c r="K50">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L50">
         <v>242</v>
@@ -2315,37 +2315,37 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51">
-        <v>23479</v>
+        <v>44883</v>
       </c>
       <c r="B51">
-        <v>234.79</v>
+        <v>224.415</v>
       </c>
       <c r="C51">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D51">
         <v>242</v>
       </c>
       <c r="E51">
-        <v>199.6625252525254</v>
+        <v>1101.379673366837</v>
       </c>
       <c r="F51">
-        <v>14.13019905211973</v>
+        <v>33.18704074434532</v>
       </c>
       <c r="G51">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H51">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I51">
         <v>254</v>
       </c>
       <c r="J51">
-        <v>230.75</v>
+        <v>218.25</v>
       </c>
       <c r="K51">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L51">
         <v>242</v>
@@ -2353,37 +2353,37 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52">
-        <v>23494</v>
+        <v>44673</v>
       </c>
       <c r="B52">
-        <v>234.94</v>
+        <v>223.365</v>
       </c>
       <c r="C52">
-        <v>241.5</v>
+        <v>242</v>
       </c>
       <c r="D52">
         <v>242</v>
       </c>
       <c r="E52">
-        <v>209.4711111111111</v>
+        <v>1099.26811557789</v>
       </c>
       <c r="F52">
-        <v>14.47311684161746</v>
+        <v>33.15521249483842</v>
       </c>
       <c r="G52">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H52">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="I52">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J52">
-        <v>230.75</v>
+        <v>201.75</v>
       </c>
       <c r="K52">
-        <v>241.5</v>
+        <v>242</v>
       </c>
       <c r="L52">
         <v>242</v>
@@ -2391,37 +2391,37 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53">
-        <v>23497</v>
+        <v>44849</v>
       </c>
       <c r="B53">
-        <v>234.97</v>
+        <v>224.245</v>
       </c>
       <c r="C53">
-        <v>241.5</v>
+        <v>242</v>
       </c>
       <c r="D53">
         <v>242</v>
       </c>
       <c r="E53">
-        <v>192.0697979797981</v>
+        <v>978.2261055276392</v>
       </c>
       <c r="F53">
-        <v>13.85892484934521</v>
+        <v>31.27660636206619</v>
       </c>
       <c r="G53">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="H53">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="I53">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J53">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="K53">
-        <v>241.5</v>
+        <v>242</v>
       </c>
       <c r="L53">
         <v>242</v>
@@ -2429,37 +2429,37 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54">
-        <v>23501</v>
+        <v>45101</v>
       </c>
       <c r="B54">
-        <v>235.01</v>
+        <v>225.505</v>
       </c>
       <c r="C54">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D54">
         <v>242</v>
       </c>
       <c r="E54">
-        <v>149.7877777777778</v>
+        <v>945.4572613065335</v>
       </c>
       <c r="F54">
-        <v>12.23878171133785</v>
+        <v>30.7482887541166</v>
       </c>
       <c r="G54">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="H54">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="I54">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J54">
-        <v>230.75</v>
+        <v>229</v>
       </c>
       <c r="K54">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L54">
         <v>242</v>
@@ -2467,37 +2467,37 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55">
-        <v>23504</v>
+        <v>45355</v>
       </c>
       <c r="B55">
-        <v>235.04</v>
+        <v>226.775</v>
       </c>
       <c r="C55">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D55">
         <v>242</v>
       </c>
       <c r="E55">
-        <v>136.0185858585859</v>
+        <v>899.5219849246236</v>
       </c>
       <c r="F55">
-        <v>11.66270062458031</v>
+        <v>29.99203202393302</v>
       </c>
       <c r="G55">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="H55">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="I55">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J55">
-        <v>231</v>
+        <v>232.5</v>
       </c>
       <c r="K55">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L55">
         <v>242</v>
@@ -2505,37 +2505,37 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56">
-        <v>23457</v>
+        <v>45548</v>
       </c>
       <c r="B56">
-        <v>234.57</v>
+        <v>227.74</v>
       </c>
       <c r="C56">
-        <v>240.5</v>
+        <v>242</v>
       </c>
       <c r="D56">
         <v>242</v>
       </c>
       <c r="E56">
-        <v>160.8334343434344</v>
+        <v>850.6657286432179</v>
       </c>
       <c r="F56">
-        <v>12.68201223558133</v>
+        <v>29.16617439163419</v>
       </c>
       <c r="G56">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="H56">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="I56">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J56">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="K56">
-        <v>240.5</v>
+        <v>242</v>
       </c>
       <c r="L56">
         <v>242</v>
@@ -2543,37 +2543,37 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57">
-        <v>23423</v>
+        <v>45861</v>
       </c>
       <c r="B57">
-        <v>234.23</v>
+        <v>229.305</v>
       </c>
       <c r="C57">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D57">
         <v>242</v>
       </c>
       <c r="E57">
-        <v>171.2293939393937</v>
+        <v>800.2230904522581</v>
       </c>
       <c r="F57">
-        <v>13.08546498751167</v>
+        <v>28.28821469185106</v>
       </c>
       <c r="G57">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H57">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="I57">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J57">
-        <v>231</v>
+        <v>234.75</v>
       </c>
       <c r="K57">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L57">
         <v>242</v>
@@ -2581,37 +2581,37 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58">
-        <v>23415</v>
+        <v>45862</v>
       </c>
       <c r="B58">
-        <v>234.15</v>
+        <v>229.31</v>
       </c>
       <c r="C58">
-        <v>239.5</v>
+        <v>242</v>
       </c>
       <c r="D58">
         <v>242</v>
       </c>
       <c r="E58">
-        <v>185.4015151515154</v>
+        <v>731.9235175879388</v>
       </c>
       <c r="F58">
-        <v>13.61622249933936</v>
+        <v>27.05408504436879</v>
       </c>
       <c r="G58">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="H58">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="I58">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J58">
-        <v>231.75</v>
+        <v>233.75</v>
       </c>
       <c r="K58">
-        <v>239.5</v>
+        <v>242</v>
       </c>
       <c r="L58">
         <v>242</v>
@@ -2619,37 +2619,37 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59">
-        <v>23378</v>
+        <v>45505</v>
       </c>
       <c r="B59">
-        <v>233.78</v>
+        <v>227.525</v>
       </c>
       <c r="C59">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D59">
         <v>242</v>
       </c>
       <c r="E59">
-        <v>218.0521212121212</v>
+        <v>978.7430904522629</v>
       </c>
       <c r="F59">
-        <v>14.76658800170578</v>
+        <v>31.28486999257409</v>
       </c>
       <c r="G59">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="H59">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="I59">
         <v>255</v>
       </c>
       <c r="J59">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K59">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L59">
         <v>242</v>
@@ -2657,37 +2657,37 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60">
-        <v>23374</v>
+        <v>46110</v>
       </c>
       <c r="B60">
-        <v>233.74</v>
+        <v>230.55</v>
       </c>
       <c r="C60">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D60">
         <v>242</v>
       </c>
       <c r="E60">
-        <v>217.8711111111109</v>
+        <v>799.1331658291473</v>
       </c>
       <c r="F60">
-        <v>14.76045768636972</v>
+        <v>28.26894348625621</v>
       </c>
       <c r="G60">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="H60">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="I60">
         <v>255</v>
       </c>
       <c r="J60">
-        <v>231</v>
+        <v>236.75</v>
       </c>
       <c r="K60">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L60">
         <v>242</v>
@@ -2695,37 +2695,37 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61">
-        <v>23386</v>
+        <v>46578</v>
       </c>
       <c r="B61">
-        <v>233.86</v>
+        <v>232.89</v>
       </c>
       <c r="C61">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D61">
         <v>242</v>
       </c>
       <c r="E61">
-        <v>207.4953535353538</v>
+        <v>739.0833165829162</v>
       </c>
       <c r="F61">
-        <v>14.4046990088427</v>
+        <v>27.18608681996944</v>
       </c>
       <c r="G61">
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="H61">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="I61">
         <v>255</v>
       </c>
       <c r="J61">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="K61">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L61">
         <v>242</v>
@@ -2733,37 +2733,37 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62">
-        <v>23391</v>
+        <v>46545</v>
       </c>
       <c r="B62">
-        <v>233.91</v>
+        <v>232.725</v>
       </c>
       <c r="C62">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D62">
         <v>242</v>
       </c>
       <c r="E62">
-        <v>195.0322222222225</v>
+        <v>725.165201005026</v>
       </c>
       <c r="F62">
-        <v>13.96539373674164</v>
+        <v>26.92889156658747</v>
       </c>
       <c r="G62">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="H62">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="I62">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J62">
-        <v>231.5</v>
+        <v>235</v>
       </c>
       <c r="K62">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L62">
         <v>242</v>
@@ -2771,37 +2771,37 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63">
-        <v>23373</v>
+        <v>45769</v>
       </c>
       <c r="B63">
-        <v>233.73</v>
+        <v>228.845</v>
       </c>
       <c r="C63">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D63">
         <v>242</v>
       </c>
       <c r="E63">
-        <v>181.0879797979796</v>
+        <v>885.5286180904498</v>
       </c>
       <c r="F63">
-        <v>13.45689339327542</v>
+        <v>29.75783288632507</v>
       </c>
       <c r="G63">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="H63">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="I63">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J63">
-        <v>231.5</v>
+        <v>227</v>
       </c>
       <c r="K63">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L63">
         <v>242</v>
@@ -2809,37 +2809,37 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64">
-        <v>23345</v>
+        <v>45181</v>
       </c>
       <c r="B64">
-        <v>233.45</v>
+        <v>225.905</v>
       </c>
       <c r="C64">
-        <v>239.5</v>
+        <v>242</v>
       </c>
       <c r="D64">
         <v>242</v>
       </c>
       <c r="E64">
-        <v>220.4520202020203</v>
+        <v>781.6743467336651</v>
       </c>
       <c r="F64">
-        <v>14.84762675318922</v>
+        <v>27.95843963338557</v>
       </c>
       <c r="G64">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="H64">
-        <v>163</v>
+        <v>71</v>
       </c>
       <c r="I64">
         <v>255</v>
       </c>
       <c r="J64">
-        <v>232</v>
+        <v>212.5</v>
       </c>
       <c r="K64">
-        <v>239.5</v>
+        <v>242</v>
       </c>
       <c r="L64">
         <v>242</v>
@@ -2847,37 +2847,37 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65">
-        <v>23362</v>
+        <v>44757</v>
       </c>
       <c r="B65">
-        <v>233.62</v>
+        <v>223.785</v>
       </c>
       <c r="C65">
-        <v>239.5</v>
+        <v>241</v>
       </c>
       <c r="D65">
         <v>242</v>
       </c>
       <c r="E65">
-        <v>200.7430303030301</v>
+        <v>750.3203768844194</v>
       </c>
       <c r="F65">
-        <v>14.16838135790501</v>
+        <v>27.39197650561966</v>
       </c>
       <c r="G65">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="H65">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="I65">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J65">
-        <v>231.75</v>
+        <v>209.75</v>
       </c>
       <c r="K65">
-        <v>239.5</v>
+        <v>241</v>
       </c>
       <c r="L65">
         <v>242</v>
@@ -2885,37 +2885,37 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66">
-        <v>23378</v>
+        <v>44710</v>
       </c>
       <c r="B66">
-        <v>233.78</v>
+        <v>223.55</v>
       </c>
       <c r="C66">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D66">
         <v>242</v>
       </c>
       <c r="E66">
-        <v>174.6177777777778</v>
+        <v>826.9020100502506</v>
       </c>
       <c r="F66">
-        <v>13.21430201629196</v>
+        <v>28.75590391641776</v>
       </c>
       <c r="G66">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="H66">
-        <v>171</v>
+        <v>100</v>
       </c>
       <c r="I66">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J66">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="K66">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L66">
         <v>242</v>
@@ -2923,37 +2923,37 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67">
-        <v>23324</v>
+        <v>45231</v>
       </c>
       <c r="B67">
-        <v>233.24</v>
+        <v>226.155</v>
       </c>
       <c r="C67">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D67">
         <v>242</v>
       </c>
       <c r="E67">
-        <v>216.1640404040405</v>
+        <v>717.6994723618095</v>
       </c>
       <c r="F67">
-        <v>14.7025181654042</v>
+        <v>26.78991363110022</v>
       </c>
       <c r="G67">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="H67">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="I67">
         <v>255</v>
       </c>
       <c r="J67">
-        <v>229</v>
+        <v>218.75</v>
       </c>
       <c r="K67">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L67">
         <v>242</v>
@@ -2961,37 +2961,37 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68">
-        <v>23285</v>
+        <v>45642</v>
       </c>
       <c r="B68">
-        <v>232.85</v>
+        <v>228.21</v>
       </c>
       <c r="C68">
-        <v>241.5</v>
+        <v>238</v>
       </c>
       <c r="D68">
         <v>242</v>
       </c>
       <c r="E68">
-        <v>220.4924242424242</v>
+        <v>570.2471356783908</v>
       </c>
       <c r="F68">
-        <v>14.84898731370002</v>
+        <v>23.8798478989794</v>
       </c>
       <c r="G68">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="H68">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="I68">
         <v>255</v>
       </c>
       <c r="J68">
-        <v>226.75</v>
+        <v>221</v>
       </c>
       <c r="K68">
-        <v>241.5</v>
+        <v>238</v>
       </c>
       <c r="L68">
         <v>242</v>
@@ -2999,37 +2999,37 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69">
-        <v>23258</v>
+        <v>45922</v>
       </c>
       <c r="B69">
-        <v>232.58</v>
+        <v>229.61</v>
       </c>
       <c r="C69">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D69">
         <v>242</v>
       </c>
       <c r="E69">
-        <v>229.9026262626257</v>
+        <v>504.2993969849236</v>
       </c>
       <c r="F69">
-        <v>15.16254023119562</v>
+        <v>22.45661143148991</v>
       </c>
       <c r="G69">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="H69">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="I69">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="J69">
-        <v>225.75</v>
+        <v>224.75</v>
       </c>
       <c r="K69">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L69">
         <v>242</v>
@@ -3037,37 +3037,37 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70">
-        <v>23258</v>
+        <v>46148</v>
       </c>
       <c r="B70">
-        <v>232.58</v>
+        <v>230.74</v>
       </c>
       <c r="C70">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D70">
         <v>242</v>
       </c>
       <c r="E70">
-        <v>193.4783838383833</v>
+        <v>453.3792964824112</v>
       </c>
       <c r="F70">
-        <v>13.90965074465866</v>
+        <v>21.29270524105407</v>
       </c>
       <c r="G70">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="H70">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="I70">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="J70">
-        <v>226</v>
+        <v>226.5</v>
       </c>
       <c r="K70">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L70">
         <v>242</v>
@@ -3075,10 +3075,10 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71">
-        <v>23289</v>
+        <v>46399</v>
       </c>
       <c r="B71">
-        <v>232.89</v>
+        <v>231.995</v>
       </c>
       <c r="C71">
         <v>241</v>
@@ -3087,22 +3087,22 @@
         <v>242</v>
       </c>
       <c r="E71">
-        <v>198.6039393939392</v>
+        <v>362.6582663316594</v>
       </c>
       <c r="F71">
-        <v>14.09269099192696</v>
+        <v>19.04358858859484</v>
       </c>
       <c r="G71">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="H71">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="I71">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J71">
-        <v>229.5</v>
+        <v>226.75</v>
       </c>
       <c r="K71">
         <v>241</v>
@@ -3113,37 +3113,37 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72">
-        <v>23269</v>
+        <v>46616</v>
       </c>
       <c r="B72">
-        <v>232.69</v>
+        <v>233.08</v>
       </c>
       <c r="C72">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D72">
         <v>242</v>
       </c>
       <c r="E72">
-        <v>256.3372727272728</v>
+        <v>287.3202010050258</v>
       </c>
       <c r="F72">
-        <v>16.01053630354939</v>
+        <v>16.95052214549823</v>
       </c>
       <c r="G72">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="H72">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="I72">
         <v>254</v>
       </c>
       <c r="J72">
-        <v>228</v>
+        <v>227.75</v>
       </c>
       <c r="K72">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L72">
         <v>242</v>
@@ -3151,37 +3151,37 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73">
-        <v>23322</v>
+        <v>46771</v>
       </c>
       <c r="B73">
-        <v>233.22</v>
+        <v>233.855</v>
       </c>
       <c r="C73">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D73">
         <v>242</v>
       </c>
       <c r="E73">
-        <v>227.4864646464648</v>
+        <v>239.6622864321612</v>
       </c>
       <c r="F73">
-        <v>15.08265442972373</v>
+        <v>15.48102988925999</v>
       </c>
       <c r="G73">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H73">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="I73">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J73">
-        <v>227.75</v>
+        <v>227.25</v>
       </c>
       <c r="K73">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L73">
         <v>242</v>
@@ -3189,37 +3189,37 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74">
-        <v>23284</v>
+        <v>46878</v>
       </c>
       <c r="B74">
-        <v>232.84</v>
+        <v>234.39</v>
       </c>
       <c r="C74">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D74">
         <v>242</v>
       </c>
       <c r="E74">
-        <v>266.8832323232317</v>
+        <v>221.8571859296486</v>
       </c>
       <c r="F74">
-        <v>16.33656121474871</v>
+        <v>14.89487112833302</v>
       </c>
       <c r="G74">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H74">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I74">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J74">
-        <v>226.75</v>
+        <v>228.5</v>
       </c>
       <c r="K74">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L74">
         <v>242</v>
@@ -3227,37 +3227,37 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75">
-        <v>23260</v>
+        <v>46917</v>
       </c>
       <c r="B75">
-        <v>232.6</v>
+        <v>234.585</v>
       </c>
       <c r="C75">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D75">
         <v>242</v>
       </c>
       <c r="E75">
-        <v>235.2727272727274</v>
+        <v>202.0027889447236</v>
       </c>
       <c r="F75">
-        <v>15.33860252020136</v>
+        <v>14.21276851794624</v>
       </c>
       <c r="G75">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="H75">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="I75">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="J75">
-        <v>224.25</v>
+        <v>230.75</v>
       </c>
       <c r="K75">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L75">
         <v>242</v>
@@ -3265,37 +3265,37 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76">
-        <v>23307</v>
+        <v>46895</v>
       </c>
       <c r="B76">
-        <v>233.07</v>
+        <v>234.475</v>
       </c>
       <c r="C76">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D76">
         <v>242</v>
       </c>
       <c r="E76">
-        <v>236.3687878787882</v>
+        <v>185.0043969849248</v>
       </c>
       <c r="F76">
-        <v>15.3742898333155</v>
+        <v>13.60163214415552</v>
       </c>
       <c r="G76">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H76">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="I76">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="J76">
-        <v>226.5</v>
+        <v>232</v>
       </c>
       <c r="K76">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L76">
         <v>242</v>
@@ -3303,37 +3303,37 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77">
-        <v>23303</v>
+        <v>46885</v>
       </c>
       <c r="B77">
-        <v>233.03</v>
+        <v>234.425</v>
       </c>
       <c r="C77">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D77">
         <v>242</v>
       </c>
       <c r="E77">
-        <v>247.3829292929288</v>
+        <v>187.3209798994971</v>
       </c>
       <c r="F77">
-        <v>15.72841153114099</v>
+        <v>13.68652548675145</v>
       </c>
       <c r="G77">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="H77">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="I77">
         <v>255</v>
       </c>
       <c r="J77">
-        <v>224.5</v>
+        <v>232</v>
       </c>
       <c r="K77">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L77">
         <v>242</v>
@@ -3341,37 +3341,37 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78">
-        <v>23234</v>
+        <v>46883</v>
       </c>
       <c r="B78">
-        <v>232.34</v>
+        <v>234.415</v>
       </c>
       <c r="C78">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D78">
         <v>242</v>
       </c>
       <c r="E78">
-        <v>345.4993939393945</v>
+        <v>214.1736432160808</v>
       </c>
       <c r="F78">
-        <v>18.58761399264022</v>
+        <v>14.63467263781738</v>
       </c>
       <c r="G78">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H78">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I78">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="J78">
-        <v>222.75</v>
+        <v>230.75</v>
       </c>
       <c r="K78">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L78">
         <v>242</v>
@@ -3379,37 +3379,37 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79">
-        <v>23034</v>
+        <v>46871</v>
       </c>
       <c r="B79">
-        <v>230.34</v>
+        <v>234.355</v>
       </c>
       <c r="C79">
-        <v>242</v>
+        <v>240.5</v>
       </c>
       <c r="D79">
         <v>242</v>
       </c>
       <c r="E79">
-        <v>396.5296969696975</v>
+        <v>206.3808793969845</v>
       </c>
       <c r="F79">
-        <v>19.91305343159852</v>
+        <v>14.36596252942992</v>
       </c>
       <c r="G79">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="H79">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="I79">
         <v>255</v>
       </c>
       <c r="J79">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="K79">
-        <v>242</v>
+        <v>240.5</v>
       </c>
       <c r="L79">
         <v>242</v>
@@ -3417,37 +3417,37 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80">
-        <v>22335</v>
+        <v>46842</v>
       </c>
       <c r="B80">
-        <v>223.35</v>
+        <v>234.21</v>
       </c>
       <c r="C80">
-        <v>242</v>
+        <v>240.5</v>
       </c>
       <c r="D80">
         <v>242</v>
       </c>
       <c r="E80">
-        <v>999.4015151515139</v>
+        <v>207.5034170854269</v>
       </c>
       <c r="F80">
-        <v>31.61331230908134</v>
+        <v>14.40497889916632</v>
       </c>
       <c r="G80">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="H80">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="I80">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="J80">
-        <v>210.75</v>
+        <v>229.75</v>
       </c>
       <c r="K80">
-        <v>242</v>
+        <v>240.5</v>
       </c>
       <c r="L80">
         <v>242</v>
@@ -3455,37 +3455,37 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81">
-        <v>21274</v>
+        <v>46820</v>
       </c>
       <c r="B81">
-        <v>212.74</v>
+        <v>234.1</v>
       </c>
       <c r="C81">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D81">
         <v>242</v>
       </c>
       <c r="E81">
-        <v>1801.891313131312</v>
+        <v>203.3869346733674</v>
       </c>
       <c r="F81">
-        <v>42.44869035825855</v>
+        <v>14.2613791294309</v>
       </c>
       <c r="G81">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="H81">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="I81">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="J81">
-        <v>187</v>
+        <v>229.75</v>
       </c>
       <c r="K81">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L81">
         <v>242</v>
@@ -3493,37 +3493,37 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82">
-        <v>21734</v>
+        <v>46804</v>
       </c>
       <c r="B82">
-        <v>217.34</v>
+        <v>234.02</v>
       </c>
       <c r="C82">
-        <v>241.5</v>
+        <v>240</v>
       </c>
       <c r="D82">
         <v>242</v>
       </c>
       <c r="E82">
-        <v>1069.216565656566</v>
+        <v>192.4920603015072</v>
       </c>
       <c r="F82">
-        <v>32.69887713143322</v>
+        <v>13.87415079568862</v>
       </c>
       <c r="G82">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="H82">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="I82">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="J82">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K82">
-        <v>241.5</v>
+        <v>240</v>
       </c>
       <c r="L82">
         <v>242</v>
@@ -3531,37 +3531,37 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83">
-        <v>22832</v>
+        <v>46837</v>
       </c>
       <c r="B83">
-        <v>228.32</v>
+        <v>234.185</v>
       </c>
       <c r="C83">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D83">
         <v>242</v>
       </c>
       <c r="E83">
-        <v>281.8561616161618</v>
+        <v>181.6691206030146</v>
       </c>
       <c r="F83">
-        <v>16.78857235193516</v>
+        <v>13.47846877812961</v>
       </c>
       <c r="G83">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="H83">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="I83">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="J83">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="K83">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L83">
         <v>242</v>
@@ -3569,37 +3569,37 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84">
-        <v>22561</v>
+        <v>46901</v>
       </c>
       <c r="B84">
-        <v>225.61</v>
+        <v>234.505</v>
       </c>
       <c r="C84">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D84">
         <v>242</v>
       </c>
       <c r="E84">
-        <v>358.9069696969698</v>
+        <v>185.1758542713562</v>
       </c>
       <c r="F84">
-        <v>18.9448401866305</v>
+        <v>13.60793350481094</v>
       </c>
       <c r="G84">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="H84">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="I84">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="J84">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="K84">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L84">
         <v>242</v>
@@ -3607,37 +3607,37 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85">
-        <v>22587</v>
+        <v>46988</v>
       </c>
       <c r="B85">
-        <v>225.87</v>
+        <v>234.94</v>
       </c>
       <c r="C85">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D85">
         <v>242</v>
       </c>
       <c r="E85">
-        <v>397.5081818181815</v>
+        <v>190.8104522613066</v>
       </c>
       <c r="F85">
-        <v>19.93760722399209</v>
+        <v>13.8134156623663</v>
       </c>
       <c r="G85">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="H85">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="I85">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="J85">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="K85">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L85">
         <v>242</v>
@@ -3645,10 +3645,10 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86">
-        <v>23274</v>
+        <v>47104</v>
       </c>
       <c r="B86">
-        <v>232.74</v>
+        <v>235.52</v>
       </c>
       <c r="C86">
         <v>242</v>
@@ -3657,22 +3657,22 @@
         <v>242</v>
       </c>
       <c r="E86">
-        <v>190.5983838383836</v>
+        <v>198.4820100502517</v>
       </c>
       <c r="F86">
-        <v>13.80573735221642</v>
+        <v>14.08836434971255</v>
       </c>
       <c r="G86">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="H86">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="I86">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="J86">
-        <v>220.75</v>
+        <v>230.75</v>
       </c>
       <c r="K86">
         <v>242</v>
@@ -3683,10 +3683,10 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87">
-        <v>24263</v>
+        <v>47132</v>
       </c>
       <c r="B87">
-        <v>242.63</v>
+        <v>235.66</v>
       </c>
       <c r="C87">
         <v>242</v>
@@ -3695,63 +3695,63 @@
         <v>242</v>
       </c>
       <c r="E87">
-        <v>11.20515151515151</v>
+        <v>192.5973869346732</v>
       </c>
       <c r="F87">
-        <v>3.347409672440992</v>
+        <v>13.8779460632571</v>
       </c>
       <c r="G87">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="H87">
-        <v>235</v>
+        <v>152</v>
       </c>
       <c r="I87">
         <v>255</v>
       </c>
       <c r="J87">
-        <v>242</v>
+        <v>230.75</v>
       </c>
       <c r="K87">
         <v>242</v>
       </c>
       <c r="L87">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="88" spans="1:12">
       <c r="A88">
-        <v>24225</v>
+        <v>47031</v>
       </c>
       <c r="B88">
-        <v>242.25</v>
+        <v>235.155</v>
       </c>
       <c r="C88">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D88">
         <v>242</v>
       </c>
       <c r="E88">
-        <v>1.967171717171717</v>
+        <v>182.0009798994977</v>
       </c>
       <c r="F88">
-        <v>1.402558988838515</v>
+        <v>13.49077388067481</v>
       </c>
       <c r="G88">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="H88">
-        <v>239</v>
+        <v>164</v>
       </c>
       <c r="I88">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="J88">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="K88">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L88">
         <v>242</v>
@@ -3759,37 +3759,37 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89">
-        <v>24200</v>
+        <v>46931</v>
       </c>
       <c r="B89">
-        <v>242</v>
+        <v>234.655</v>
       </c>
       <c r="C89">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D89">
         <v>242</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>183.3024874371862</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>13.53892489960655</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="H89">
-        <v>242</v>
+        <v>166</v>
       </c>
       <c r="I89">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="J89">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="K89">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L89">
         <v>242</v>
@@ -3797,37 +3797,37 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90">
-        <v>24200</v>
+        <v>46868</v>
       </c>
       <c r="B90">
-        <v>242</v>
+        <v>234.34</v>
       </c>
       <c r="C90">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D90">
         <v>242</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>189.3712562814075</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>13.76122292099824</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="H90">
-        <v>242</v>
+        <v>164</v>
       </c>
       <c r="I90">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="J90">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="K90">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L90">
         <v>242</v>
@@ -3835,37 +3835,37 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91">
-        <v>24200</v>
+        <v>46867</v>
       </c>
       <c r="B91">
-        <v>242</v>
+        <v>234.335</v>
       </c>
       <c r="C91">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D91">
         <v>242</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>196.6560552763814</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>14.02341097152834</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="H91">
-        <v>242</v>
+        <v>161</v>
       </c>
       <c r="I91">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="J91">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="K91">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L91">
         <v>242</v>
@@ -3873,37 +3873,37 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92">
-        <v>24200</v>
+        <v>46891</v>
       </c>
       <c r="B92">
-        <v>242</v>
+        <v>234.455</v>
       </c>
       <c r="C92">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D92">
         <v>242</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>200.058266331658</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>14.14419549962662</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="H92">
-        <v>242</v>
+        <v>160</v>
       </c>
       <c r="I92">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="J92">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="K92">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L92">
         <v>242</v>
@@ -3911,37 +3911,37 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93">
-        <v>24200</v>
+        <v>46906</v>
       </c>
       <c r="B93">
-        <v>242</v>
+        <v>234.53</v>
       </c>
       <c r="C93">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D93">
         <v>242</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>197.3357788944727</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>14.0476253827639</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="H93">
-        <v>242</v>
+        <v>159</v>
       </c>
       <c r="I93">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="J93">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="K93">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L93">
         <v>242</v>
@@ -3949,37 +3949,37 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94">
-        <v>24200</v>
+        <v>46885</v>
       </c>
       <c r="B94">
-        <v>242</v>
+        <v>234.425</v>
       </c>
       <c r="C94">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D94">
         <v>242</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>193.7531407035173</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>13.91952372401863</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="H94">
-        <v>242</v>
+        <v>158</v>
       </c>
       <c r="I94">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="J94">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="K94">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L94">
         <v>242</v>
@@ -3987,37 +3987,37 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95">
-        <v>24200</v>
+        <v>46829</v>
       </c>
       <c r="B95">
-        <v>242</v>
+        <v>234.145</v>
       </c>
       <c r="C95">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D95">
         <v>242</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>191.400979899498</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>13.8347742988275</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="H95">
-        <v>242</v>
+        <v>156</v>
       </c>
       <c r="I95">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="J95">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="K95">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L95">
         <v>242</v>
@@ -4025,37 +4025,37 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96">
-        <v>24200</v>
+        <v>46806</v>
       </c>
       <c r="B96">
-        <v>242</v>
+        <v>234.03</v>
       </c>
       <c r="C96">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D96">
         <v>242</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>189.446331658292</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>13.76395043794811</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="H96">
-        <v>242</v>
+        <v>156</v>
       </c>
       <c r="I96">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="J96">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="K96">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L96">
         <v>242</v>
@@ -4063,37 +4063,37 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97">
-        <v>24200</v>
+        <v>46849</v>
       </c>
       <c r="B97">
-        <v>242</v>
+        <v>234.245</v>
       </c>
       <c r="C97">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D97">
         <v>242</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>187.4019849246234</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>13.68948446526104</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="H97">
-        <v>242</v>
+        <v>157</v>
       </c>
       <c r="I97">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="J97">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="K97">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L97">
         <v>242</v>
@@ -4101,37 +4101,37 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98">
-        <v>24200</v>
+        <v>46945</v>
       </c>
       <c r="B98">
-        <v>242</v>
+        <v>234.725</v>
       </c>
       <c r="C98">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D98">
         <v>242</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>185.3059045226136</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>13.6127111378525</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="H98">
-        <v>242</v>
+        <v>160</v>
       </c>
       <c r="I98">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="J98">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="K98">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L98">
         <v>242</v>
@@ -4139,37 +4139,37 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99">
-        <v>24200</v>
+        <v>46934</v>
       </c>
       <c r="B99">
-        <v>242</v>
+        <v>234.67</v>
       </c>
       <c r="C99">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D99">
         <v>242</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>183.0764824120606</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>13.53057583445954</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="H99">
-        <v>242</v>
+        <v>159</v>
       </c>
       <c r="I99">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="J99">
-        <v>242</v>
+        <v>230.75</v>
       </c>
       <c r="K99">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L99">
         <v>242</v>
@@ -4177,37 +4177,37 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100">
-        <v>24200</v>
+        <v>46932</v>
       </c>
       <c r="B100">
-        <v>242</v>
+        <v>234.66</v>
       </c>
       <c r="C100">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D100">
         <v>242</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>185.8637185929647</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>13.63318446266186</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="H100">
-        <v>242</v>
+        <v>158</v>
       </c>
       <c r="I100">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="J100">
-        <v>242</v>
+        <v>230.75</v>
       </c>
       <c r="K100">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L100">
         <v>242</v>
@@ -4215,39 +4215,3839 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101">
-        <v>24200</v>
+        <v>46953</v>
       </c>
       <c r="B101">
-        <v>242</v>
+        <v>234.765</v>
       </c>
       <c r="C101">
-        <v>242</v>
+        <v>241.5</v>
       </c>
       <c r="D101">
         <v>242</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>190.8640954773865</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>13.8153572330717</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="H101">
-        <v>242</v>
+        <v>158</v>
       </c>
       <c r="I101">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="J101">
-        <v>242</v>
+        <v>230.75</v>
       </c>
       <c r="K101">
-        <v>242</v>
+        <v>241.5</v>
       </c>
       <c r="L101">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102">
+        <v>46965</v>
+      </c>
+      <c r="B102">
+        <v>234.825</v>
+      </c>
+      <c r="C102">
+        <v>242</v>
+      </c>
+      <c r="D102">
+        <v>242</v>
+      </c>
+      <c r="E102">
+        <v>198.3461055276388</v>
+      </c>
+      <c r="F102">
+        <v>14.08354023417545</v>
+      </c>
+      <c r="G102">
+        <v>97</v>
+      </c>
+      <c r="H102">
+        <v>157</v>
+      </c>
+      <c r="I102">
+        <v>254</v>
+      </c>
+      <c r="J102">
+        <v>230.75</v>
+      </c>
+      <c r="K102">
+        <v>242</v>
+      </c>
+      <c r="L102">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103">
+        <v>46960</v>
+      </c>
+      <c r="B103">
+        <v>234.8</v>
+      </c>
+      <c r="C103">
+        <v>242</v>
+      </c>
+      <c r="D103">
+        <v>242</v>
+      </c>
+      <c r="E103">
+        <v>199.768844221105</v>
+      </c>
+      <c r="F103">
+        <v>14.13396066999993</v>
+      </c>
+      <c r="G103">
+        <v>97</v>
+      </c>
+      <c r="H103">
+        <v>158</v>
+      </c>
+      <c r="I103">
+        <v>255</v>
+      </c>
+      <c r="J103">
+        <v>230.75</v>
+      </c>
+      <c r="K103">
+        <v>242</v>
+      </c>
+      <c r="L103">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104">
+        <v>46953</v>
+      </c>
+      <c r="B104">
+        <v>234.765</v>
+      </c>
+      <c r="C104">
+        <v>242</v>
+      </c>
+      <c r="D104">
+        <v>242</v>
+      </c>
+      <c r="E104">
+        <v>196.2007788944718</v>
+      </c>
+      <c r="F104">
+        <v>14.00716883936478</v>
+      </c>
+      <c r="G104">
+        <v>95</v>
+      </c>
+      <c r="H104">
+        <v>160</v>
+      </c>
+      <c r="I104">
+        <v>255</v>
+      </c>
+      <c r="J104">
+        <v>230</v>
+      </c>
+      <c r="K104">
+        <v>242</v>
+      </c>
+      <c r="L104">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105">
+        <v>46945</v>
+      </c>
+      <c r="B105">
+        <v>234.725</v>
+      </c>
+      <c r="C105">
+        <v>242</v>
+      </c>
+      <c r="D105">
+        <v>242</v>
+      </c>
+      <c r="E105">
+        <v>184.2104271356789</v>
+      </c>
+      <c r="F105">
+        <v>13.57241419702769</v>
+      </c>
+      <c r="G105">
+        <v>91</v>
+      </c>
+      <c r="H105">
+        <v>163</v>
+      </c>
+      <c r="I105">
+        <v>254</v>
+      </c>
+      <c r="J105">
+        <v>230</v>
+      </c>
+      <c r="K105">
+        <v>242</v>
+      </c>
+      <c r="L105">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106">
+        <v>46957</v>
+      </c>
+      <c r="B106">
+        <v>234.785</v>
+      </c>
+      <c r="C106">
+        <v>241</v>
+      </c>
+      <c r="D106">
+        <v>242</v>
+      </c>
+      <c r="E106">
+        <v>164.02891959799</v>
+      </c>
+      <c r="F106">
+        <v>12.80737754569568</v>
+      </c>
+      <c r="G106">
+        <v>88</v>
+      </c>
+      <c r="H106">
+        <v>166</v>
+      </c>
+      <c r="I106">
+        <v>254</v>
+      </c>
+      <c r="J106">
+        <v>230</v>
+      </c>
+      <c r="K106">
+        <v>241</v>
+      </c>
+      <c r="L106">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107">
+        <v>46975</v>
+      </c>
+      <c r="B107">
+        <v>234.875</v>
+      </c>
+      <c r="C107">
+        <v>241</v>
+      </c>
+      <c r="D107">
+        <v>242</v>
+      </c>
+      <c r="E107">
+        <v>149.5069095477387</v>
+      </c>
+      <c r="F107">
+        <v>12.22730180979184</v>
+      </c>
+      <c r="G107">
+        <v>87</v>
+      </c>
+      <c r="H107">
+        <v>166</v>
+      </c>
+      <c r="I107">
+        <v>253</v>
+      </c>
+      <c r="J107">
+        <v>230.75</v>
+      </c>
+      <c r="K107">
+        <v>241</v>
+      </c>
+      <c r="L107">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108">
+        <v>46990</v>
+      </c>
+      <c r="B108">
+        <v>234.95</v>
+      </c>
+      <c r="C108">
+        <v>241</v>
+      </c>
+      <c r="D108">
+        <v>242</v>
+      </c>
+      <c r="E108">
+        <v>146.1281407035175</v>
+      </c>
+      <c r="F108">
+        <v>12.08834731067558</v>
+      </c>
+      <c r="G108">
+        <v>88</v>
+      </c>
+      <c r="H108">
+        <v>166</v>
+      </c>
+      <c r="I108">
+        <v>254</v>
+      </c>
+      <c r="J108">
+        <v>231</v>
+      </c>
+      <c r="K108">
+        <v>241</v>
+      </c>
+      <c r="L108">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109">
+        <v>46976</v>
+      </c>
+      <c r="B109">
+        <v>234.88</v>
+      </c>
+      <c r="C109">
+        <v>241</v>
+      </c>
+      <c r="D109">
+        <v>242</v>
+      </c>
+      <c r="E109">
+        <v>156.0056281407035</v>
+      </c>
+      <c r="F109">
+        <v>12.49022130070975</v>
+      </c>
+      <c r="G109">
+        <v>92</v>
+      </c>
+      <c r="H109">
+        <v>163</v>
+      </c>
+      <c r="I109">
+        <v>255</v>
+      </c>
+      <c r="J109">
+        <v>231</v>
+      </c>
+      <c r="K109">
+        <v>241</v>
+      </c>
+      <c r="L109">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="A110">
+        <v>46915</v>
+      </c>
+      <c r="B110">
+        <v>234.575</v>
+      </c>
+      <c r="C110">
+        <v>241</v>
+      </c>
+      <c r="D110">
+        <v>242</v>
+      </c>
+      <c r="E110">
+        <v>180.1048994974871</v>
+      </c>
+      <c r="F110">
+        <v>13.42031666904649</v>
+      </c>
+      <c r="G110">
+        <v>98</v>
+      </c>
+      <c r="H110">
+        <v>157</v>
+      </c>
+      <c r="I110">
+        <v>255</v>
+      </c>
+      <c r="J110">
+        <v>231</v>
+      </c>
+      <c r="K110">
+        <v>241</v>
+      </c>
+      <c r="L110">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="A111">
+        <v>46885</v>
+      </c>
+      <c r="B111">
+        <v>234.425</v>
+      </c>
+      <c r="C111">
+        <v>240</v>
+      </c>
+      <c r="D111">
+        <v>242</v>
+      </c>
+      <c r="E111">
+        <v>187.562185929648</v>
+      </c>
+      <c r="F111">
+        <v>13.69533445848067</v>
+      </c>
+      <c r="G111">
+        <v>94</v>
+      </c>
+      <c r="H111">
+        <v>161</v>
+      </c>
+      <c r="I111">
+        <v>255</v>
+      </c>
+      <c r="J111">
+        <v>231</v>
+      </c>
+      <c r="K111">
+        <v>240</v>
+      </c>
+      <c r="L111">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112">
+        <v>46851</v>
+      </c>
+      <c r="B112">
+        <v>234.255</v>
+      </c>
+      <c r="C112">
+        <v>240</v>
+      </c>
+      <c r="D112">
+        <v>242</v>
+      </c>
+      <c r="E112">
+        <v>184.4622864321611</v>
+      </c>
+      <c r="F112">
+        <v>13.58168938063896</v>
+      </c>
+      <c r="G112">
+        <v>90</v>
+      </c>
+      <c r="H112">
+        <v>165</v>
+      </c>
+      <c r="I112">
+        <v>255</v>
+      </c>
+      <c r="J112">
+        <v>231</v>
+      </c>
+      <c r="K112">
+        <v>240</v>
+      </c>
+      <c r="L112">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="A113">
+        <v>46846</v>
+      </c>
+      <c r="B113">
+        <v>234.23</v>
+      </c>
+      <c r="C113">
+        <v>239.5</v>
+      </c>
+      <c r="D113">
+        <v>242</v>
+      </c>
+      <c r="E113">
+        <v>171.8463316582917</v>
+      </c>
+      <c r="F113">
+        <v>13.10901718887773</v>
+      </c>
+      <c r="G113">
+        <v>94</v>
+      </c>
+      <c r="H113">
+        <v>161</v>
+      </c>
+      <c r="I113">
+        <v>255</v>
+      </c>
+      <c r="J113">
+        <v>231</v>
+      </c>
+      <c r="K113">
+        <v>239.5</v>
+      </c>
+      <c r="L113">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
+      <c r="A114">
+        <v>46856</v>
+      </c>
+      <c r="B114">
+        <v>234.28</v>
+      </c>
+      <c r="C114">
+        <v>240</v>
+      </c>
+      <c r="D114">
+        <v>242</v>
+      </c>
+      <c r="E114">
+        <v>169.5995979899499</v>
+      </c>
+      <c r="F114">
+        <v>13.02304104231995</v>
+      </c>
+      <c r="G114">
+        <v>99</v>
+      </c>
+      <c r="H114">
+        <v>156</v>
+      </c>
+      <c r="I114">
+        <v>255</v>
+      </c>
+      <c r="J114">
+        <v>231</v>
+      </c>
+      <c r="K114">
+        <v>240</v>
+      </c>
+      <c r="L114">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115">
+        <v>46847</v>
+      </c>
+      <c r="B115">
+        <v>234.235</v>
+      </c>
+      <c r="C115">
+        <v>240</v>
+      </c>
+      <c r="D115">
+        <v>242</v>
+      </c>
+      <c r="E115">
+        <v>179.4671105527641</v>
+      </c>
+      <c r="F115">
+        <v>13.39653352747509</v>
+      </c>
+      <c r="G115">
+        <v>100</v>
+      </c>
+      <c r="H115">
+        <v>155</v>
+      </c>
+      <c r="I115">
+        <v>255</v>
+      </c>
+      <c r="J115">
+        <v>231</v>
+      </c>
+      <c r="K115">
+        <v>240</v>
+      </c>
+      <c r="L115">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116">
+        <v>46830</v>
+      </c>
+      <c r="B116">
+        <v>234.15</v>
+      </c>
+      <c r="C116">
+        <v>240</v>
+      </c>
+      <c r="D116">
+        <v>242</v>
+      </c>
+      <c r="E116">
+        <v>189.5753768844218</v>
+      </c>
+      <c r="F116">
+        <v>13.76863743746715</v>
+      </c>
+      <c r="G116">
+        <v>95</v>
+      </c>
+      <c r="H116">
+        <v>160</v>
+      </c>
+      <c r="I116">
+        <v>255</v>
+      </c>
+      <c r="J116">
+        <v>231</v>
+      </c>
+      <c r="K116">
+        <v>240</v>
+      </c>
+      <c r="L116">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117">
+        <v>46796</v>
+      </c>
+      <c r="B117">
+        <v>233.98</v>
+      </c>
+      <c r="C117">
+        <v>240</v>
+      </c>
+      <c r="D117">
+        <v>242</v>
+      </c>
+      <c r="E117">
+        <v>198.6227135678388</v>
+      </c>
+      <c r="F117">
+        <v>14.0933570723174</v>
+      </c>
+      <c r="G117">
+        <v>97</v>
+      </c>
+      <c r="H117">
+        <v>158</v>
+      </c>
+      <c r="I117">
+        <v>255</v>
+      </c>
+      <c r="J117">
+        <v>231</v>
+      </c>
+      <c r="K117">
+        <v>240</v>
+      </c>
+      <c r="L117">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118">
+        <v>46778</v>
+      </c>
+      <c r="B118">
+        <v>233.89</v>
+      </c>
+      <c r="C118">
+        <v>240</v>
+      </c>
+      <c r="D118">
+        <v>242</v>
+      </c>
+      <c r="E118">
+        <v>198.2491457286433</v>
+      </c>
+      <c r="F118">
+        <v>14.08009750423069</v>
+      </c>
+      <c r="G118">
+        <v>102</v>
+      </c>
+      <c r="H118">
+        <v>153</v>
+      </c>
+      <c r="I118">
+        <v>255</v>
+      </c>
+      <c r="J118">
+        <v>231</v>
+      </c>
+      <c r="K118">
+        <v>240</v>
+      </c>
+      <c r="L118">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119">
+        <v>46758</v>
+      </c>
+      <c r="B119">
+        <v>233.79</v>
+      </c>
+      <c r="C119">
+        <v>240</v>
+      </c>
+      <c r="D119">
+        <v>242</v>
+      </c>
+      <c r="E119">
+        <v>200.2571859296482</v>
+      </c>
+      <c r="F119">
+        <v>14.15122559814691</v>
+      </c>
+      <c r="G119">
+        <v>106</v>
+      </c>
+      <c r="H119">
+        <v>149</v>
+      </c>
+      <c r="I119">
+        <v>255</v>
+      </c>
+      <c r="J119">
+        <v>231</v>
+      </c>
+      <c r="K119">
+        <v>240</v>
+      </c>
+      <c r="L119">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120">
+        <v>46733</v>
+      </c>
+      <c r="B120">
+        <v>233.665</v>
+      </c>
+      <c r="C120">
+        <v>239.5</v>
+      </c>
+      <c r="D120">
+        <v>242</v>
+      </c>
+      <c r="E120">
+        <v>207.2088190954771</v>
+      </c>
+      <c r="F120">
+        <v>14.39474970589892</v>
+      </c>
+      <c r="G120">
+        <v>107</v>
+      </c>
+      <c r="H120">
+        <v>148</v>
+      </c>
+      <c r="I120">
+        <v>255</v>
+      </c>
+      <c r="J120">
+        <v>231</v>
+      </c>
+      <c r="K120">
+        <v>239.5</v>
+      </c>
+      <c r="L120">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121">
+        <v>46778</v>
+      </c>
+      <c r="B121">
+        <v>233.89</v>
+      </c>
+      <c r="C121">
+        <v>239</v>
+      </c>
+      <c r="D121">
+        <v>242</v>
+      </c>
+      <c r="E121">
+        <v>215.5556783919601</v>
+      </c>
+      <c r="F121">
+        <v>14.68181454698159</v>
+      </c>
+      <c r="G121">
+        <v>103</v>
+      </c>
+      <c r="H121">
+        <v>152</v>
+      </c>
+      <c r="I121">
+        <v>255</v>
+      </c>
+      <c r="J121">
+        <v>231.75</v>
+      </c>
+      <c r="K121">
+        <v>239</v>
+      </c>
+      <c r="L121">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122">
+        <v>46743</v>
+      </c>
+      <c r="B122">
+        <v>233.715</v>
+      </c>
+      <c r="C122">
+        <v>239</v>
+      </c>
+      <c r="D122">
+        <v>242</v>
+      </c>
+      <c r="E122">
+        <v>200.7977638190954</v>
+      </c>
+      <c r="F122">
+        <v>14.17031276363</v>
+      </c>
+      <c r="G122">
+        <v>95</v>
+      </c>
+      <c r="H122">
+        <v>158</v>
+      </c>
+      <c r="I122">
+        <v>253</v>
+      </c>
+      <c r="J122">
+        <v>231</v>
+      </c>
+      <c r="K122">
+        <v>239</v>
+      </c>
+      <c r="L122">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="A123">
+        <v>46725</v>
+      </c>
+      <c r="B123">
+        <v>233.625</v>
+      </c>
+      <c r="C123">
+        <v>239</v>
+      </c>
+      <c r="D123">
+        <v>242</v>
+      </c>
+      <c r="E123">
+        <v>193.6526381909548</v>
+      </c>
+      <c r="F123">
+        <v>13.91591312817649</v>
+      </c>
+      <c r="G123">
+        <v>90</v>
+      </c>
+      <c r="H123">
+        <v>163</v>
+      </c>
+      <c r="I123">
+        <v>253</v>
+      </c>
+      <c r="J123">
+        <v>231.75</v>
+      </c>
+      <c r="K123">
+        <v>239</v>
+      </c>
+      <c r="L123">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124">
+        <v>46715</v>
+      </c>
+      <c r="B124">
+        <v>233.575</v>
+      </c>
+      <c r="C124">
+        <v>239</v>
+      </c>
+      <c r="D124">
+        <v>242</v>
+      </c>
+      <c r="E124">
+        <v>201.2405778894478</v>
+      </c>
+      <c r="F124">
+        <v>14.18592886946244</v>
+      </c>
+      <c r="G124">
+        <v>91</v>
+      </c>
+      <c r="H124">
+        <v>162</v>
+      </c>
+      <c r="I124">
+        <v>253</v>
+      </c>
+      <c r="J124">
+        <v>231.75</v>
+      </c>
+      <c r="K124">
+        <v>239</v>
+      </c>
+      <c r="L124">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125">
+        <v>46708</v>
+      </c>
+      <c r="B125">
+        <v>233.54</v>
+      </c>
+      <c r="C125">
+        <v>239</v>
+      </c>
+      <c r="D125">
+        <v>242</v>
+      </c>
+      <c r="E125">
+        <v>212.7421105527644</v>
+      </c>
+      <c r="F125">
+        <v>14.5856816965394</v>
+      </c>
+      <c r="G125">
+        <v>94</v>
+      </c>
+      <c r="H125">
+        <v>160</v>
+      </c>
+      <c r="I125">
+        <v>254</v>
+      </c>
+      <c r="J125">
+        <v>231.75</v>
+      </c>
+      <c r="K125">
+        <v>239</v>
+      </c>
+      <c r="L125">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="A126">
+        <v>46703</v>
+      </c>
+      <c r="B126">
+        <v>233.515</v>
+      </c>
+      <c r="C126">
+        <v>239</v>
+      </c>
+      <c r="D126">
+        <v>242</v>
+      </c>
+      <c r="E126">
+        <v>208.0399748743717</v>
+      </c>
+      <c r="F126">
+        <v>14.42359091469152</v>
+      </c>
+      <c r="G126">
+        <v>86</v>
+      </c>
+      <c r="H126">
+        <v>169</v>
+      </c>
+      <c r="I126">
+        <v>255</v>
+      </c>
+      <c r="J126">
+        <v>232</v>
+      </c>
+      <c r="K126">
+        <v>239</v>
+      </c>
+      <c r="L126">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="A127">
+        <v>46712</v>
+      </c>
+      <c r="B127">
+        <v>233.56</v>
+      </c>
+      <c r="C127">
+        <v>239.5</v>
+      </c>
+      <c r="D127">
+        <v>242</v>
+      </c>
+      <c r="E127">
+        <v>202.7702512562814</v>
+      </c>
+      <c r="F127">
+        <v>14.23974196593047</v>
+      </c>
+      <c r="G127">
+        <v>92</v>
+      </c>
+      <c r="H127">
+        <v>162</v>
+      </c>
+      <c r="I127">
+        <v>254</v>
+      </c>
+      <c r="J127">
+        <v>231</v>
+      </c>
+      <c r="K127">
+        <v>239.5</v>
+      </c>
+      <c r="L127">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
+      <c r="A128">
+        <v>46738</v>
+      </c>
+      <c r="B128">
+        <v>233.69</v>
+      </c>
+      <c r="C128">
+        <v>239</v>
+      </c>
+      <c r="D128">
+        <v>242</v>
+      </c>
+      <c r="E128">
+        <v>199.8230150753772</v>
+      </c>
+      <c r="F128">
+        <v>14.13587687677624</v>
+      </c>
+      <c r="G128">
+        <v>91</v>
+      </c>
+      <c r="H128">
+        <v>163</v>
+      </c>
+      <c r="I128">
+        <v>254</v>
+      </c>
+      <c r="J128">
+        <v>231</v>
+      </c>
+      <c r="K128">
+        <v>239</v>
+      </c>
+      <c r="L128">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="A129">
+        <v>46787</v>
+      </c>
+      <c r="B129">
+        <v>233.935</v>
+      </c>
+      <c r="C129">
+        <v>239</v>
+      </c>
+      <c r="D129">
+        <v>242</v>
+      </c>
+      <c r="E129">
+        <v>182.8248994974872</v>
+      </c>
+      <c r="F129">
+        <v>13.52127580879434</v>
+      </c>
+      <c r="G129">
+        <v>78</v>
+      </c>
+      <c r="H129">
+        <v>176</v>
+      </c>
+      <c r="I129">
+        <v>254</v>
+      </c>
+      <c r="J129">
+        <v>230</v>
+      </c>
+      <c r="K129">
+        <v>239</v>
+      </c>
+      <c r="L129">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="A130">
+        <v>46771</v>
+      </c>
+      <c r="B130">
+        <v>233.855</v>
+      </c>
+      <c r="C130">
+        <v>240</v>
+      </c>
+      <c r="D130">
+        <v>242</v>
+      </c>
+      <c r="E130">
+        <v>183.8632914572866</v>
+      </c>
+      <c r="F130">
+        <v>13.55961988616519</v>
+      </c>
+      <c r="G130">
+        <v>88</v>
+      </c>
+      <c r="H130">
+        <v>167</v>
+      </c>
+      <c r="I130">
+        <v>255</v>
+      </c>
+      <c r="J130">
+        <v>231</v>
+      </c>
+      <c r="K130">
+        <v>240</v>
+      </c>
+      <c r="L130">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="A131">
+        <v>46714</v>
+      </c>
+      <c r="B131">
+        <v>233.57</v>
+      </c>
+      <c r="C131">
+        <v>240</v>
+      </c>
+      <c r="D131">
+        <v>242</v>
+      </c>
+      <c r="E131">
+        <v>193.5227135678388</v>
+      </c>
+      <c r="F131">
+        <v>13.91124414162295</v>
+      </c>
+      <c r="G131">
+        <v>96</v>
+      </c>
+      <c r="H131">
+        <v>159</v>
+      </c>
+      <c r="I131">
+        <v>255</v>
+      </c>
+      <c r="J131">
+        <v>230</v>
+      </c>
+      <c r="K131">
+        <v>240</v>
+      </c>
+      <c r="L131">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
+      <c r="A132">
+        <v>46650</v>
+      </c>
+      <c r="B132">
+        <v>233.25</v>
+      </c>
+      <c r="C132">
+        <v>240</v>
+      </c>
+      <c r="D132">
+        <v>242</v>
+      </c>
+      <c r="E132">
+        <v>219.7964824120603</v>
+      </c>
+      <c r="F132">
+        <v>14.82553481032169</v>
+      </c>
+      <c r="G132">
+        <v>103</v>
+      </c>
+      <c r="H132">
+        <v>152</v>
+      </c>
+      <c r="I132">
+        <v>255</v>
+      </c>
+      <c r="J132">
+        <v>229.75</v>
+      </c>
+      <c r="K132">
+        <v>240</v>
+      </c>
+      <c r="L132">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
+      <c r="A133">
+        <v>46609</v>
+      </c>
+      <c r="B133">
+        <v>233.045</v>
+      </c>
+      <c r="C133">
+        <v>240</v>
+      </c>
+      <c r="D133">
+        <v>242</v>
+      </c>
+      <c r="E133">
+        <v>213.9527386934666</v>
+      </c>
+      <c r="F133">
+        <v>14.62712339092915</v>
+      </c>
+      <c r="G133">
+        <v>99</v>
+      </c>
+      <c r="H133">
+        <v>153</v>
+      </c>
+      <c r="I133">
+        <v>252</v>
+      </c>
+      <c r="J133">
+        <v>228.75</v>
+      </c>
+      <c r="K133">
+        <v>240</v>
+      </c>
+      <c r="L133">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="A134">
+        <v>46591</v>
+      </c>
+      <c r="B134">
+        <v>232.955</v>
+      </c>
+      <c r="C134">
+        <v>240.5</v>
+      </c>
+      <c r="D134">
+        <v>242</v>
+      </c>
+      <c r="E134">
+        <v>216.9879145728642</v>
+      </c>
+      <c r="F134">
+        <v>14.73050965081875</v>
+      </c>
+      <c r="G134">
+        <v>101</v>
+      </c>
+      <c r="H134">
+        <v>151</v>
+      </c>
+      <c r="I134">
+        <v>252</v>
+      </c>
+      <c r="J134">
+        <v>228</v>
+      </c>
+      <c r="K134">
+        <v>240.5</v>
+      </c>
+      <c r="L134">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="A135">
+        <v>46575</v>
+      </c>
+      <c r="B135">
+        <v>232.875</v>
+      </c>
+      <c r="C135">
+        <v>241.5</v>
+      </c>
+      <c r="D135">
+        <v>242</v>
+      </c>
+      <c r="E135">
+        <v>220.662688442211</v>
+      </c>
+      <c r="F135">
+        <v>14.85471939964573</v>
+      </c>
+      <c r="G135">
+        <v>100</v>
+      </c>
+      <c r="H135">
+        <v>155</v>
+      </c>
+      <c r="I135">
+        <v>255</v>
+      </c>
+      <c r="J135">
+        <v>227</v>
+      </c>
+      <c r="K135">
+        <v>241.5</v>
+      </c>
+      <c r="L135">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
+      <c r="A136">
+        <v>46558</v>
+      </c>
+      <c r="B136">
+        <v>232.79</v>
+      </c>
+      <c r="C136">
+        <v>242</v>
+      </c>
+      <c r="D136">
+        <v>242</v>
+      </c>
+      <c r="E136">
+        <v>217.4833165829139</v>
+      </c>
+      <c r="F136">
+        <v>14.74731557209359</v>
+      </c>
+      <c r="G136">
+        <v>100</v>
+      </c>
+      <c r="H136">
+        <v>155</v>
+      </c>
+      <c r="I136">
+        <v>255</v>
+      </c>
+      <c r="J136">
+        <v>226</v>
+      </c>
+      <c r="K136">
+        <v>242</v>
+      </c>
+      <c r="L136">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
+      <c r="A137">
+        <v>46539</v>
+      </c>
+      <c r="B137">
+        <v>232.695</v>
+      </c>
+      <c r="C137">
+        <v>242</v>
+      </c>
+      <c r="D137">
+        <v>242</v>
+      </c>
+      <c r="E137">
+        <v>212.2230904522613</v>
+      </c>
+      <c r="F137">
+        <v>14.56787872177213</v>
+      </c>
+      <c r="G137">
+        <v>92</v>
+      </c>
+      <c r="H137">
+        <v>161</v>
+      </c>
+      <c r="I137">
+        <v>253</v>
+      </c>
+      <c r="J137">
+        <v>224</v>
+      </c>
+      <c r="K137">
+        <v>242</v>
+      </c>
+      <c r="L137">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
+      <c r="A138">
+        <v>46503</v>
+      </c>
+      <c r="B138">
+        <v>232.515</v>
+      </c>
+      <c r="C138">
+        <v>242</v>
+      </c>
+      <c r="D138">
+        <v>242</v>
+      </c>
+      <c r="E138">
+        <v>210.9645979899496</v>
+      </c>
+      <c r="F138">
+        <v>14.52462040777485</v>
+      </c>
+      <c r="G138">
+        <v>103</v>
+      </c>
+      <c r="H138">
+        <v>150</v>
+      </c>
+      <c r="I138">
+        <v>253</v>
+      </c>
+      <c r="J138">
+        <v>225</v>
+      </c>
+      <c r="K138">
+        <v>242</v>
+      </c>
+      <c r="L138">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="A139">
+        <v>46488</v>
+      </c>
+      <c r="B139">
+        <v>232.44</v>
+      </c>
+      <c r="C139">
+        <v>242</v>
+      </c>
+      <c r="D139">
+        <v>242</v>
+      </c>
+      <c r="E139">
+        <v>212.5692462311565</v>
+      </c>
+      <c r="F139">
+        <v>14.57975466978634</v>
+      </c>
+      <c r="G139">
+        <v>99</v>
+      </c>
+      <c r="H139">
+        <v>152</v>
+      </c>
+      <c r="I139">
+        <v>251</v>
+      </c>
+      <c r="J139">
+        <v>227</v>
+      </c>
+      <c r="K139">
+        <v>242</v>
+      </c>
+      <c r="L139">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="A140">
+        <v>46518</v>
+      </c>
+      <c r="B140">
+        <v>232.59</v>
+      </c>
+      <c r="C140">
+        <v>241.5</v>
+      </c>
+      <c r="D140">
+        <v>242</v>
+      </c>
+      <c r="E140">
+        <v>203.228040201005</v>
+      </c>
+      <c r="F140">
+        <v>14.25580724480396</v>
+      </c>
+      <c r="G140">
+        <v>86</v>
+      </c>
+      <c r="H140">
+        <v>169</v>
+      </c>
+      <c r="I140">
+        <v>255</v>
+      </c>
+      <c r="J140">
+        <v>229.25</v>
+      </c>
+      <c r="K140">
+        <v>241.5</v>
+      </c>
+      <c r="L140">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="A141">
+        <v>46568</v>
+      </c>
+      <c r="B141">
+        <v>232.84</v>
+      </c>
+      <c r="C141">
+        <v>242</v>
+      </c>
+      <c r="D141">
+        <v>242</v>
+      </c>
+      <c r="E141">
+        <v>211.2607035175875</v>
+      </c>
+      <c r="F141">
+        <v>14.53481006128348</v>
+      </c>
+      <c r="G141">
+        <v>93</v>
+      </c>
+      <c r="H141">
+        <v>162</v>
+      </c>
+      <c r="I141">
+        <v>255</v>
+      </c>
+      <c r="J141">
+        <v>230</v>
+      </c>
+      <c r="K141">
+        <v>242</v>
+      </c>
+      <c r="L141">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142">
+        <v>46571</v>
+      </c>
+      <c r="B142">
+        <v>232.855</v>
+      </c>
+      <c r="C142">
+        <v>242</v>
+      </c>
+      <c r="D142">
+        <v>242</v>
+      </c>
+      <c r="E142">
+        <v>218.4964572864327</v>
+      </c>
+      <c r="F142">
+        <v>14.78162566453476</v>
+      </c>
+      <c r="G142">
+        <v>93</v>
+      </c>
+      <c r="H142">
+        <v>161</v>
+      </c>
+      <c r="I142">
+        <v>254</v>
+      </c>
+      <c r="J142">
+        <v>227.75</v>
+      </c>
+      <c r="K142">
+        <v>242</v>
+      </c>
+      <c r="L142">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143">
+        <v>46567</v>
+      </c>
+      <c r="B143">
+        <v>232.835</v>
+      </c>
+      <c r="C143">
+        <v>242</v>
+      </c>
+      <c r="D143">
+        <v>242</v>
+      </c>
+      <c r="E143">
+        <v>241.555552763819</v>
+      </c>
+      <c r="F143">
+        <v>15.5420575460207</v>
+      </c>
+      <c r="G143">
+        <v>108</v>
+      </c>
+      <c r="H143">
+        <v>146</v>
+      </c>
+      <c r="I143">
+        <v>254</v>
+      </c>
+      <c r="J143">
+        <v>226.75</v>
+      </c>
+      <c r="K143">
+        <v>242</v>
+      </c>
+      <c r="L143">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144">
+        <v>46608</v>
+      </c>
+      <c r="B144">
+        <v>233.04</v>
+      </c>
+      <c r="C144">
+        <v>242</v>
+      </c>
+      <c r="D144">
+        <v>242</v>
+      </c>
+      <c r="E144">
+        <v>248.1189949748751</v>
+      </c>
+      <c r="F144">
+        <v>15.75179338916287</v>
+      </c>
+      <c r="G144">
+        <v>109</v>
+      </c>
+      <c r="H144">
+        <v>146</v>
+      </c>
+      <c r="I144">
+        <v>255</v>
+      </c>
+      <c r="J144">
+        <v>227</v>
+      </c>
+      <c r="K144">
+        <v>242</v>
+      </c>
+      <c r="L144">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145">
+        <v>46604</v>
+      </c>
+      <c r="B145">
+        <v>233.02</v>
+      </c>
+      <c r="C145">
+        <v>242</v>
+      </c>
+      <c r="D145">
+        <v>242</v>
+      </c>
+      <c r="E145">
+        <v>239.0548743718583</v>
+      </c>
+      <c r="F145">
+        <v>15.46139949590134</v>
+      </c>
+      <c r="G145">
+        <v>102</v>
+      </c>
+      <c r="H145">
+        <v>153</v>
+      </c>
+      <c r="I145">
+        <v>255</v>
+      </c>
+      <c r="J145">
+        <v>227.5</v>
+      </c>
+      <c r="K145">
+        <v>242</v>
+      </c>
+      <c r="L145">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146">
+        <v>46567</v>
+      </c>
+      <c r="B146">
+        <v>232.835</v>
+      </c>
+      <c r="C146">
+        <v>242</v>
+      </c>
+      <c r="D146">
+        <v>242</v>
+      </c>
+      <c r="E146">
+        <v>247.0630904522612</v>
+      </c>
+      <c r="F146">
+        <v>15.71824069201961</v>
+      </c>
+      <c r="G146">
+        <v>98</v>
+      </c>
+      <c r="H146">
+        <v>155</v>
+      </c>
+      <c r="I146">
+        <v>253</v>
+      </c>
+      <c r="J146">
+        <v>225.5</v>
+      </c>
+      <c r="K146">
+        <v>242</v>
+      </c>
+      <c r="L146">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147">
+        <v>46538</v>
+      </c>
+      <c r="B147">
+        <v>232.69</v>
+      </c>
+      <c r="C147">
+        <v>242</v>
+      </c>
+      <c r="D147">
+        <v>242</v>
+      </c>
+      <c r="E147">
+        <v>261.4813065326625</v>
+      </c>
+      <c r="F147">
+        <v>16.17038362354655</v>
+      </c>
+      <c r="G147">
+        <v>103</v>
+      </c>
+      <c r="H147">
+        <v>151</v>
+      </c>
+      <c r="I147">
+        <v>254</v>
+      </c>
+      <c r="J147">
+        <v>225</v>
+      </c>
+      <c r="K147">
+        <v>242</v>
+      </c>
+      <c r="L147">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148">
+        <v>46505</v>
+      </c>
+      <c r="B148">
+        <v>232.525</v>
+      </c>
+      <c r="C148">
+        <v>242</v>
+      </c>
+      <c r="D148">
+        <v>242</v>
+      </c>
+      <c r="E148">
+        <v>253.7581658291461</v>
+      </c>
+      <c r="F148">
+        <v>15.9297886310254</v>
+      </c>
+      <c r="G148">
+        <v>103</v>
+      </c>
+      <c r="H148">
+        <v>151</v>
+      </c>
+      <c r="I148">
+        <v>254</v>
+      </c>
+      <c r="J148">
+        <v>224.75</v>
+      </c>
+      <c r="K148">
+        <v>242</v>
+      </c>
+      <c r="L148">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149">
+        <v>46532</v>
+      </c>
+      <c r="B149">
+        <v>232.66</v>
+      </c>
+      <c r="C149">
+        <v>242</v>
+      </c>
+      <c r="D149">
+        <v>242</v>
+      </c>
+      <c r="E149">
+        <v>243.3813065326634</v>
+      </c>
+      <c r="F149">
+        <v>15.60068288674132</v>
+      </c>
+      <c r="G149">
+        <v>88</v>
+      </c>
+      <c r="H149">
+        <v>164</v>
+      </c>
+      <c r="I149">
+        <v>252</v>
+      </c>
+      <c r="J149">
+        <v>225</v>
+      </c>
+      <c r="K149">
+        <v>242</v>
+      </c>
+      <c r="L149">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150">
+        <v>46580</v>
+      </c>
+      <c r="B150">
+        <v>232.9</v>
+      </c>
+      <c r="C150">
+        <v>242</v>
+      </c>
+      <c r="D150">
+        <v>242</v>
+      </c>
+      <c r="E150">
+        <v>246.5025125628133</v>
+      </c>
+      <c r="F150">
+        <v>15.70039848420457</v>
+      </c>
+      <c r="G150">
+        <v>94</v>
+      </c>
+      <c r="H150">
+        <v>161</v>
+      </c>
+      <c r="I150">
+        <v>255</v>
+      </c>
+      <c r="J150">
+        <v>226.5</v>
+      </c>
+      <c r="K150">
+        <v>242</v>
+      </c>
+      <c r="L150">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151">
+        <v>46623</v>
+      </c>
+      <c r="B151">
+        <v>233.115</v>
+      </c>
+      <c r="C151">
+        <v>242</v>
+      </c>
+      <c r="D151">
+        <v>242</v>
+      </c>
+      <c r="E151">
+        <v>238.5143467336689</v>
+      </c>
+      <c r="F151">
+        <v>15.44390969714822</v>
+      </c>
+      <c r="G151">
+        <v>94</v>
+      </c>
+      <c r="H151">
+        <v>161</v>
+      </c>
+      <c r="I151">
+        <v>255</v>
+      </c>
+      <c r="J151">
+        <v>226.5</v>
+      </c>
+      <c r="K151">
+        <v>242</v>
+      </c>
+      <c r="L151">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="A152">
+        <v>46654</v>
+      </c>
+      <c r="B152">
+        <v>233.27</v>
+      </c>
+      <c r="C152">
+        <v>242</v>
+      </c>
+      <c r="D152">
+        <v>242</v>
+      </c>
+      <c r="E152">
+        <v>235.4543718592961</v>
+      </c>
+      <c r="F152">
+        <v>15.34452253604836</v>
+      </c>
+      <c r="G152">
+        <v>93</v>
+      </c>
+      <c r="H152">
+        <v>161</v>
+      </c>
+      <c r="I152">
+        <v>254</v>
+      </c>
+      <c r="J152">
+        <v>226</v>
+      </c>
+      <c r="K152">
+        <v>242</v>
+      </c>
+      <c r="L152">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153">
+        <v>46619</v>
+      </c>
+      <c r="B153">
+        <v>233.095</v>
+      </c>
+      <c r="C153">
+        <v>242</v>
+      </c>
+      <c r="D153">
+        <v>242</v>
+      </c>
+      <c r="E153">
+        <v>263.0411809045227</v>
+      </c>
+      <c r="F153">
+        <v>16.21854435220753</v>
+      </c>
+      <c r="G153">
+        <v>96</v>
+      </c>
+      <c r="H153">
+        <v>159</v>
+      </c>
+      <c r="I153">
+        <v>255</v>
+      </c>
+      <c r="J153">
+        <v>226</v>
+      </c>
+      <c r="K153">
+        <v>242</v>
+      </c>
+      <c r="L153">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154">
+        <v>46545</v>
+      </c>
+      <c r="B154">
+        <v>232.725</v>
+      </c>
+      <c r="C154">
+        <v>242</v>
+      </c>
+      <c r="D154">
+        <v>242</v>
+      </c>
+      <c r="E154">
+        <v>314.8536432160809</v>
+      </c>
+      <c r="F154">
+        <v>17.744115734972</v>
+      </c>
+      <c r="G154">
+        <v>107</v>
+      </c>
+      <c r="H154">
+        <v>147</v>
+      </c>
+      <c r="I154">
+        <v>254</v>
+      </c>
+      <c r="J154">
+        <v>225</v>
+      </c>
+      <c r="K154">
+        <v>242</v>
+      </c>
+      <c r="L154">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="A155">
+        <v>46440</v>
+      </c>
+      <c r="B155">
+        <v>232.2</v>
+      </c>
+      <c r="C155">
+        <v>242</v>
+      </c>
+      <c r="D155">
+        <v>242</v>
+      </c>
+      <c r="E155">
+        <v>364.633165829144</v>
+      </c>
+      <c r="F155">
+        <v>19.09537027211423</v>
+      </c>
+      <c r="G155">
+        <v>121</v>
+      </c>
+      <c r="H155">
+        <v>134</v>
+      </c>
+      <c r="I155">
+        <v>255</v>
+      </c>
+      <c r="J155">
+        <v>223</v>
+      </c>
+      <c r="K155">
+        <v>242</v>
+      </c>
+      <c r="L155">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
+      <c r="A156">
+        <v>46285</v>
+      </c>
+      <c r="B156">
+        <v>231.425</v>
+      </c>
+      <c r="C156">
+        <v>242</v>
+      </c>
+      <c r="D156">
+        <v>242</v>
+      </c>
+      <c r="E156">
+        <v>340.205402010051</v>
+      </c>
+      <c r="F156">
+        <v>18.44465781764604</v>
+      </c>
+      <c r="G156">
+        <v>105</v>
+      </c>
+      <c r="H156">
+        <v>150</v>
+      </c>
+      <c r="I156">
+        <v>255</v>
+      </c>
+      <c r="J156">
+        <v>219.75</v>
+      </c>
+      <c r="K156">
+        <v>242</v>
+      </c>
+      <c r="L156">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
+      <c r="A157">
+        <v>45747</v>
+      </c>
+      <c r="B157">
+        <v>228.735</v>
+      </c>
+      <c r="C157">
+        <v>242</v>
+      </c>
+      <c r="D157">
+        <v>242</v>
+      </c>
+      <c r="E157">
+        <v>501.1706281407045</v>
+      </c>
+      <c r="F157">
+        <v>22.38684051269193</v>
+      </c>
+      <c r="G157">
+        <v>99</v>
+      </c>
+      <c r="H157">
+        <v>156</v>
+      </c>
+      <c r="I157">
+        <v>255</v>
+      </c>
+      <c r="J157">
+        <v>215</v>
+      </c>
+      <c r="K157">
+        <v>242</v>
+      </c>
+      <c r="L157">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
+      <c r="A158">
+        <v>45033</v>
+      </c>
+      <c r="B158">
+        <v>225.165</v>
+      </c>
+      <c r="C158">
+        <v>242</v>
+      </c>
+      <c r="D158">
+        <v>242</v>
+      </c>
+      <c r="E158">
+        <v>809.4148492462348</v>
+      </c>
+      <c r="F158">
+        <v>28.45021703337665</v>
+      </c>
+      <c r="G158">
+        <v>102</v>
+      </c>
+      <c r="H158">
+        <v>151</v>
+      </c>
+      <c r="I158">
+        <v>253</v>
+      </c>
+      <c r="J158">
+        <v>207</v>
+      </c>
+      <c r="K158">
+        <v>242</v>
+      </c>
+      <c r="L158">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
+      <c r="A159">
+        <v>44222</v>
+      </c>
+      <c r="B159">
+        <v>221.11</v>
+      </c>
+      <c r="C159">
+        <v>242</v>
+      </c>
+      <c r="D159">
+        <v>242</v>
+      </c>
+      <c r="E159">
+        <v>1224.560703517587</v>
+      </c>
+      <c r="F159">
+        <v>34.99372377323664</v>
+      </c>
+      <c r="G159">
+        <v>124</v>
+      </c>
+      <c r="H159">
+        <v>126</v>
+      </c>
+      <c r="I159">
+        <v>250</v>
+      </c>
+      <c r="J159">
+        <v>208</v>
+      </c>
+      <c r="K159">
+        <v>242</v>
+      </c>
+      <c r="L159">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
+      <c r="A160">
+        <v>43039</v>
+      </c>
+      <c r="B160">
+        <v>215.195</v>
+      </c>
+      <c r="C160">
+        <v>242</v>
+      </c>
+      <c r="D160">
+        <v>242</v>
+      </c>
+      <c r="E160">
+        <v>1594.690427135675</v>
+      </c>
+      <c r="F160">
+        <v>39.93357518599699</v>
+      </c>
+      <c r="G160">
+        <v>136</v>
+      </c>
+      <c r="H160">
+        <v>112</v>
+      </c>
+      <c r="I160">
+        <v>248</v>
+      </c>
+      <c r="J160">
+        <v>194.25</v>
+      </c>
+      <c r="K160">
+        <v>242</v>
+      </c>
+      <c r="L160">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
+      <c r="A161">
+        <v>42227</v>
+      </c>
+      <c r="B161">
+        <v>211.135</v>
+      </c>
+      <c r="C161">
+        <v>242</v>
+      </c>
+      <c r="D161">
+        <v>242</v>
+      </c>
+      <c r="E161">
+        <v>1885.986708542716</v>
+      </c>
+      <c r="F161">
+        <v>43.42794847264508</v>
+      </c>
+      <c r="G161">
+        <v>139</v>
+      </c>
+      <c r="H161">
+        <v>108</v>
+      </c>
+      <c r="I161">
+        <v>247</v>
+      </c>
+      <c r="J161">
+        <v>193</v>
+      </c>
+      <c r="K161">
+        <v>242</v>
+      </c>
+      <c r="L161">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
+      <c r="A162">
+        <v>42509</v>
+      </c>
+      <c r="B162">
+        <v>212.545</v>
+      </c>
+      <c r="C162">
+        <v>242</v>
+      </c>
+      <c r="D162">
+        <v>242</v>
+      </c>
+      <c r="E162">
+        <v>1609.867311557795</v>
+      </c>
+      <c r="F162">
+        <v>40.12315181485367</v>
+      </c>
+      <c r="G162">
+        <v>136</v>
+      </c>
+      <c r="H162">
+        <v>111</v>
+      </c>
+      <c r="I162">
+        <v>247</v>
+      </c>
+      <c r="J162">
+        <v>196.5</v>
+      </c>
+      <c r="K162">
+        <v>242</v>
+      </c>
+      <c r="L162">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
+      <c r="A163">
+        <v>44433</v>
+      </c>
+      <c r="B163">
+        <v>222.165</v>
+      </c>
+      <c r="C163">
+        <v>242</v>
+      </c>
+      <c r="D163">
+        <v>242</v>
+      </c>
+      <c r="E163">
+        <v>787.3143467336665</v>
+      </c>
+      <c r="F163">
+        <v>28.05912234432265</v>
+      </c>
+      <c r="G163">
+        <v>115</v>
+      </c>
+      <c r="H163">
+        <v>133</v>
+      </c>
+      <c r="I163">
+        <v>248</v>
+      </c>
+      <c r="J163">
+        <v>204</v>
+      </c>
+      <c r="K163">
+        <v>242</v>
+      </c>
+      <c r="L163">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
+      <c r="A164">
+        <v>45406</v>
+      </c>
+      <c r="B164">
+        <v>227.03</v>
+      </c>
+      <c r="C164">
+        <v>242</v>
+      </c>
+      <c r="D164">
+        <v>242</v>
+      </c>
+      <c r="E164">
+        <v>310.9237185929642</v>
+      </c>
+      <c r="F164">
+        <v>17.63302919503521</v>
+      </c>
+      <c r="G164">
+        <v>57</v>
+      </c>
+      <c r="H164">
+        <v>189</v>
+      </c>
+      <c r="I164">
+        <v>246</v>
+      </c>
+      <c r="J164">
+        <v>210</v>
+      </c>
+      <c r="K164">
+        <v>242</v>
+      </c>
+      <c r="L164">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
+      <c r="A165">
+        <v>45444</v>
+      </c>
+      <c r="B165">
+        <v>227.22</v>
+      </c>
+      <c r="C165">
+        <v>242</v>
+      </c>
+      <c r="D165">
+        <v>242</v>
+      </c>
+      <c r="E165">
+        <v>301.2880402010052</v>
+      </c>
+      <c r="F165">
+        <v>17.35765076849414</v>
+      </c>
+      <c r="G165">
+        <v>57</v>
+      </c>
+      <c r="H165">
+        <v>191</v>
+      </c>
+      <c r="I165">
+        <v>248</v>
+      </c>
+      <c r="J165">
+        <v>210.75</v>
+      </c>
+      <c r="K165">
+        <v>242</v>
+      </c>
+      <c r="L165">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
+      <c r="A166">
+        <v>45132</v>
+      </c>
+      <c r="B166">
+        <v>225.66</v>
+      </c>
+      <c r="C166">
+        <v>242</v>
+      </c>
+      <c r="D166">
+        <v>242</v>
+      </c>
+      <c r="E166">
+        <v>351.8436180904521</v>
+      </c>
+      <c r="F166">
+        <v>18.75749498441762</v>
+      </c>
+      <c r="G166">
+        <v>53</v>
+      </c>
+      <c r="H166">
+        <v>195</v>
+      </c>
+      <c r="I166">
+        <v>248</v>
+      </c>
+      <c r="J166">
+        <v>205</v>
+      </c>
+      <c r="K166">
+        <v>242</v>
+      </c>
+      <c r="L166">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
+      <c r="A167">
+        <v>45085</v>
+      </c>
+      <c r="B167">
+        <v>225.425</v>
+      </c>
+      <c r="C167">
+        <v>242</v>
+      </c>
+      <c r="D167">
+        <v>242</v>
+      </c>
+      <c r="E167">
+        <v>373.8636934673359</v>
+      </c>
+      <c r="F167">
+        <v>19.33555516315309</v>
+      </c>
+      <c r="G167">
+        <v>53</v>
+      </c>
+      <c r="H167">
+        <v>193</v>
+      </c>
+      <c r="I167">
+        <v>246</v>
+      </c>
+      <c r="J167">
+        <v>204</v>
+      </c>
+      <c r="K167">
+        <v>242</v>
+      </c>
+      <c r="L167">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
+      <c r="A168">
+        <v>45108</v>
+      </c>
+      <c r="B168">
+        <v>225.54</v>
+      </c>
+      <c r="C168">
+        <v>242</v>
+      </c>
+      <c r="D168">
+        <v>242</v>
+      </c>
+      <c r="E168">
+        <v>389.8978894472356</v>
+      </c>
+      <c r="F168">
+        <v>19.74583220447382</v>
+      </c>
+      <c r="G168">
+        <v>51</v>
+      </c>
+      <c r="H168">
+        <v>193</v>
+      </c>
+      <c r="I168">
+        <v>244</v>
+      </c>
+      <c r="J168">
+        <v>203</v>
+      </c>
+      <c r="K168">
+        <v>242</v>
+      </c>
+      <c r="L168">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
+      <c r="A169">
+        <v>45373</v>
+      </c>
+      <c r="B169">
+        <v>226.865</v>
+      </c>
+      <c r="C169">
+        <v>242</v>
+      </c>
+      <c r="D169">
+        <v>242</v>
+      </c>
+      <c r="E169">
+        <v>367.3434924623112</v>
+      </c>
+      <c r="F169">
+        <v>19.16620704423051</v>
+      </c>
+      <c r="G169">
+        <v>54</v>
+      </c>
+      <c r="H169">
+        <v>193</v>
+      </c>
+      <c r="I169">
+        <v>247</v>
+      </c>
+      <c r="J169">
+        <v>204</v>
+      </c>
+      <c r="K169">
+        <v>242</v>
+      </c>
+      <c r="L169">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
+      <c r="A170">
+        <v>45977</v>
+      </c>
+      <c r="B170">
+        <v>229.885</v>
+      </c>
+      <c r="C170">
+        <v>242</v>
+      </c>
+      <c r="D170">
+        <v>242</v>
+      </c>
+      <c r="E170">
+        <v>287.6902261306523</v>
+      </c>
+      <c r="F170">
+        <v>16.96143349279926</v>
+      </c>
+      <c r="G170">
+        <v>52</v>
+      </c>
+      <c r="H170">
+        <v>195</v>
+      </c>
+      <c r="I170">
+        <v>247</v>
+      </c>
+      <c r="J170">
+        <v>209</v>
+      </c>
+      <c r="K170">
+        <v>242</v>
+      </c>
+      <c r="L170">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
+      <c r="A171">
+        <v>47119</v>
+      </c>
+      <c r="B171">
+        <v>235.595</v>
+      </c>
+      <c r="C171">
+        <v>242</v>
+      </c>
+      <c r="D171">
+        <v>242</v>
+      </c>
+      <c r="E171">
+        <v>123.9507286432157</v>
+      </c>
+      <c r="F171">
+        <v>11.13331615661819</v>
+      </c>
+      <c r="G171">
+        <v>44</v>
+      </c>
+      <c r="H171">
+        <v>204</v>
+      </c>
+      <c r="I171">
+        <v>248</v>
+      </c>
+      <c r="J171">
+        <v>231.75</v>
+      </c>
+      <c r="K171">
+        <v>242</v>
+      </c>
+      <c r="L171">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
+      <c r="A172">
+        <v>48104</v>
+      </c>
+      <c r="B172">
+        <v>240.52</v>
+      </c>
+      <c r="C172">
+        <v>242</v>
+      </c>
+      <c r="D172">
+        <v>242</v>
+      </c>
+      <c r="E172">
+        <v>18.1905527638191</v>
+      </c>
+      <c r="F172">
+        <v>4.265038424659162</v>
+      </c>
+      <c r="G172">
+        <v>24</v>
+      </c>
+      <c r="H172">
+        <v>228</v>
+      </c>
+      <c r="I172">
+        <v>252</v>
+      </c>
+      <c r="J172">
+        <v>240</v>
+      </c>
+      <c r="K172">
+        <v>242</v>
+      </c>
+      <c r="L172">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
+      <c r="A173">
+        <v>48515</v>
+      </c>
+      <c r="B173">
+        <v>242.575</v>
+      </c>
+      <c r="C173">
+        <v>242</v>
+      </c>
+      <c r="D173">
+        <v>242</v>
+      </c>
+      <c r="E173">
+        <v>6.858668341708559</v>
+      </c>
+      <c r="F173">
+        <v>2.618905943654441</v>
+      </c>
+      <c r="G173">
+        <v>17</v>
+      </c>
+      <c r="H173">
+        <v>237</v>
+      </c>
+      <c r="I173">
+        <v>254</v>
+      </c>
+      <c r="J173">
+        <v>242</v>
+      </c>
+      <c r="K173">
+        <v>242</v>
+      </c>
+      <c r="L173">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
+      <c r="A174">
+        <v>48486</v>
+      </c>
+      <c r="B174">
+        <v>242.43</v>
+      </c>
+      <c r="C174">
+        <v>242</v>
+      </c>
+      <c r="D174">
+        <v>242</v>
+      </c>
+      <c r="E174">
+        <v>4.437286432160795</v>
+      </c>
+      <c r="F174">
+        <v>2.106486751005283</v>
+      </c>
+      <c r="G174">
+        <v>15</v>
+      </c>
+      <c r="H174">
+        <v>237</v>
+      </c>
+      <c r="I174">
+        <v>252</v>
+      </c>
+      <c r="J174">
+        <v>242</v>
+      </c>
+      <c r="K174">
+        <v>242</v>
+      </c>
+      <c r="L174">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
+      <c r="A175">
+        <v>48431</v>
+      </c>
+      <c r="B175">
+        <v>242.155</v>
+      </c>
+      <c r="C175">
+        <v>242</v>
+      </c>
+      <c r="D175">
+        <v>242</v>
+      </c>
+      <c r="E175">
+        <v>0.6341457286432143</v>
+      </c>
+      <c r="F175">
+        <v>0.7963326746047874</v>
+      </c>
+      <c r="G175">
+        <v>6</v>
+      </c>
+      <c r="H175">
+        <v>241</v>
+      </c>
+      <c r="I175">
+        <v>247</v>
+      </c>
+      <c r="J175">
+        <v>242</v>
+      </c>
+      <c r="K175">
+        <v>242</v>
+      </c>
+      <c r="L175">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
+      <c r="A176">
+        <v>48396</v>
+      </c>
+      <c r="B176">
+        <v>241.98</v>
+      </c>
+      <c r="C176">
+        <v>242</v>
+      </c>
+      <c r="D176">
+        <v>242</v>
+      </c>
+      <c r="E176">
+        <v>0.06994974874371876</v>
+      </c>
+      <c r="F176">
+        <v>0.2644801481089247</v>
+      </c>
+      <c r="G176">
+        <v>2</v>
+      </c>
+      <c r="H176">
+        <v>241</v>
+      </c>
+      <c r="I176">
+        <v>243</v>
+      </c>
+      <c r="J176">
+        <v>242</v>
+      </c>
+      <c r="K176">
+        <v>242</v>
+      </c>
+      <c r="L176">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12">
+      <c r="A177">
+        <v>48400</v>
+      </c>
+      <c r="B177">
+        <v>242</v>
+      </c>
+      <c r="C177">
+        <v>242</v>
+      </c>
+      <c r="D177">
+        <v>242</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <v>242</v>
+      </c>
+      <c r="I177">
+        <v>242</v>
+      </c>
+      <c r="J177">
+        <v>242</v>
+      </c>
+      <c r="K177">
+        <v>242</v>
+      </c>
+      <c r="L177">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
+      <c r="A178">
+        <v>48400</v>
+      </c>
+      <c r="B178">
+        <v>242</v>
+      </c>
+      <c r="C178">
+        <v>242</v>
+      </c>
+      <c r="D178">
+        <v>242</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>242</v>
+      </c>
+      <c r="I178">
+        <v>242</v>
+      </c>
+      <c r="J178">
+        <v>242</v>
+      </c>
+      <c r="K178">
+        <v>242</v>
+      </c>
+      <c r="L178">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
+      <c r="A179">
+        <v>48400</v>
+      </c>
+      <c r="B179">
+        <v>242</v>
+      </c>
+      <c r="C179">
+        <v>242</v>
+      </c>
+      <c r="D179">
+        <v>242</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>242</v>
+      </c>
+      <c r="I179">
+        <v>242</v>
+      </c>
+      <c r="J179">
+        <v>242</v>
+      </c>
+      <c r="K179">
+        <v>242</v>
+      </c>
+      <c r="L179">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
+      <c r="A180">
+        <v>48400</v>
+      </c>
+      <c r="B180">
+        <v>242</v>
+      </c>
+      <c r="C180">
+        <v>242</v>
+      </c>
+      <c r="D180">
+        <v>242</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>242</v>
+      </c>
+      <c r="I180">
+        <v>242</v>
+      </c>
+      <c r="J180">
+        <v>242</v>
+      </c>
+      <c r="K180">
+        <v>242</v>
+      </c>
+      <c r="L180">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12">
+      <c r="A181">
+        <v>48400</v>
+      </c>
+      <c r="B181">
+        <v>242</v>
+      </c>
+      <c r="C181">
+        <v>242</v>
+      </c>
+      <c r="D181">
+        <v>242</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>242</v>
+      </c>
+      <c r="I181">
+        <v>242</v>
+      </c>
+      <c r="J181">
+        <v>242</v>
+      </c>
+      <c r="K181">
+        <v>242</v>
+      </c>
+      <c r="L181">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12">
+      <c r="A182">
+        <v>48400</v>
+      </c>
+      <c r="B182">
+        <v>242</v>
+      </c>
+      <c r="C182">
+        <v>242</v>
+      </c>
+      <c r="D182">
+        <v>242</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>242</v>
+      </c>
+      <c r="I182">
+        <v>242</v>
+      </c>
+      <c r="J182">
+        <v>242</v>
+      </c>
+      <c r="K182">
+        <v>242</v>
+      </c>
+      <c r="L182">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12">
+      <c r="A183">
+        <v>48400</v>
+      </c>
+      <c r="B183">
+        <v>242</v>
+      </c>
+      <c r="C183">
+        <v>242</v>
+      </c>
+      <c r="D183">
+        <v>242</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>242</v>
+      </c>
+      <c r="I183">
+        <v>242</v>
+      </c>
+      <c r="J183">
+        <v>242</v>
+      </c>
+      <c r="K183">
+        <v>242</v>
+      </c>
+      <c r="L183">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12">
+      <c r="A184">
+        <v>48400</v>
+      </c>
+      <c r="B184">
+        <v>242</v>
+      </c>
+      <c r="C184">
+        <v>242</v>
+      </c>
+      <c r="D184">
+        <v>242</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>242</v>
+      </c>
+      <c r="I184">
+        <v>242</v>
+      </c>
+      <c r="J184">
+        <v>242</v>
+      </c>
+      <c r="K184">
+        <v>242</v>
+      </c>
+      <c r="L184">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12">
+      <c r="A185">
+        <v>48400</v>
+      </c>
+      <c r="B185">
+        <v>242</v>
+      </c>
+      <c r="C185">
+        <v>242</v>
+      </c>
+      <c r="D185">
+        <v>242</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>242</v>
+      </c>
+      <c r="I185">
+        <v>242</v>
+      </c>
+      <c r="J185">
+        <v>242</v>
+      </c>
+      <c r="K185">
+        <v>242</v>
+      </c>
+      <c r="L185">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12">
+      <c r="A186">
+        <v>48400</v>
+      </c>
+      <c r="B186">
+        <v>242</v>
+      </c>
+      <c r="C186">
+        <v>242</v>
+      </c>
+      <c r="D186">
+        <v>242</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>242</v>
+      </c>
+      <c r="I186">
+        <v>242</v>
+      </c>
+      <c r="J186">
+        <v>242</v>
+      </c>
+      <c r="K186">
+        <v>242</v>
+      </c>
+      <c r="L186">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12">
+      <c r="A187">
+        <v>48400</v>
+      </c>
+      <c r="B187">
+        <v>242</v>
+      </c>
+      <c r="C187">
+        <v>242</v>
+      </c>
+      <c r="D187">
+        <v>242</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>242</v>
+      </c>
+      <c r="I187">
+        <v>242</v>
+      </c>
+      <c r="J187">
+        <v>242</v>
+      </c>
+      <c r="K187">
+        <v>242</v>
+      </c>
+      <c r="L187">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12">
+      <c r="A188">
+        <v>48400</v>
+      </c>
+      <c r="B188">
+        <v>242</v>
+      </c>
+      <c r="C188">
+        <v>242</v>
+      </c>
+      <c r="D188">
+        <v>242</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>242</v>
+      </c>
+      <c r="I188">
+        <v>242</v>
+      </c>
+      <c r="J188">
+        <v>242</v>
+      </c>
+      <c r="K188">
+        <v>242</v>
+      </c>
+      <c r="L188">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12">
+      <c r="A189">
+        <v>48400</v>
+      </c>
+      <c r="B189">
+        <v>242</v>
+      </c>
+      <c r="C189">
+        <v>242</v>
+      </c>
+      <c r="D189">
+        <v>242</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>242</v>
+      </c>
+      <c r="I189">
+        <v>242</v>
+      </c>
+      <c r="J189">
+        <v>242</v>
+      </c>
+      <c r="K189">
+        <v>242</v>
+      </c>
+      <c r="L189">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12">
+      <c r="A190">
+        <v>48400</v>
+      </c>
+      <c r="B190">
+        <v>242</v>
+      </c>
+      <c r="C190">
+        <v>242</v>
+      </c>
+      <c r="D190">
+        <v>242</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <v>242</v>
+      </c>
+      <c r="I190">
+        <v>242</v>
+      </c>
+      <c r="J190">
+        <v>242</v>
+      </c>
+      <c r="K190">
+        <v>242</v>
+      </c>
+      <c r="L190">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12">
+      <c r="A191">
+        <v>48400</v>
+      </c>
+      <c r="B191">
+        <v>242</v>
+      </c>
+      <c r="C191">
+        <v>242</v>
+      </c>
+      <c r="D191">
+        <v>242</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>242</v>
+      </c>
+      <c r="I191">
+        <v>242</v>
+      </c>
+      <c r="J191">
+        <v>242</v>
+      </c>
+      <c r="K191">
+        <v>242</v>
+      </c>
+      <c r="L191">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12">
+      <c r="A192">
+        <v>48400</v>
+      </c>
+      <c r="B192">
+        <v>242</v>
+      </c>
+      <c r="C192">
+        <v>242</v>
+      </c>
+      <c r="D192">
+        <v>242</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>242</v>
+      </c>
+      <c r="I192">
+        <v>242</v>
+      </c>
+      <c r="J192">
+        <v>242</v>
+      </c>
+      <c r="K192">
+        <v>242</v>
+      </c>
+      <c r="L192">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12">
+      <c r="A193">
+        <v>48400</v>
+      </c>
+      <c r="B193">
+        <v>242</v>
+      </c>
+      <c r="C193">
+        <v>242</v>
+      </c>
+      <c r="D193">
+        <v>242</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <v>242</v>
+      </c>
+      <c r="I193">
+        <v>242</v>
+      </c>
+      <c r="J193">
+        <v>242</v>
+      </c>
+      <c r="K193">
+        <v>242</v>
+      </c>
+      <c r="L193">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12">
+      <c r="A194">
+        <v>48400</v>
+      </c>
+      <c r="B194">
+        <v>242</v>
+      </c>
+      <c r="C194">
+        <v>242</v>
+      </c>
+      <c r="D194">
+        <v>242</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <v>242</v>
+      </c>
+      <c r="I194">
+        <v>242</v>
+      </c>
+      <c r="J194">
+        <v>242</v>
+      </c>
+      <c r="K194">
+        <v>242</v>
+      </c>
+      <c r="L194">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12">
+      <c r="A195">
+        <v>48400</v>
+      </c>
+      <c r="B195">
+        <v>242</v>
+      </c>
+      <c r="C195">
+        <v>242</v>
+      </c>
+      <c r="D195">
+        <v>242</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <v>242</v>
+      </c>
+      <c r="I195">
+        <v>242</v>
+      </c>
+      <c r="J195">
+        <v>242</v>
+      </c>
+      <c r="K195">
+        <v>242</v>
+      </c>
+      <c r="L195">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12">
+      <c r="A196">
+        <v>48400</v>
+      </c>
+      <c r="B196">
+        <v>242</v>
+      </c>
+      <c r="C196">
+        <v>242</v>
+      </c>
+      <c r="D196">
+        <v>242</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <v>242</v>
+      </c>
+      <c r="I196">
+        <v>242</v>
+      </c>
+      <c r="J196">
+        <v>242</v>
+      </c>
+      <c r="K196">
+        <v>242</v>
+      </c>
+      <c r="L196">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12">
+      <c r="A197">
+        <v>48400</v>
+      </c>
+      <c r="B197">
+        <v>242</v>
+      </c>
+      <c r="C197">
+        <v>242</v>
+      </c>
+      <c r="D197">
+        <v>242</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="H197">
+        <v>242</v>
+      </c>
+      <c r="I197">
+        <v>242</v>
+      </c>
+      <c r="J197">
+        <v>242</v>
+      </c>
+      <c r="K197">
+        <v>242</v>
+      </c>
+      <c r="L197">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12">
+      <c r="A198">
+        <v>48400</v>
+      </c>
+      <c r="B198">
+        <v>242</v>
+      </c>
+      <c r="C198">
+        <v>242</v>
+      </c>
+      <c r="D198">
+        <v>242</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>242</v>
+      </c>
+      <c r="I198">
+        <v>242</v>
+      </c>
+      <c r="J198">
+        <v>242</v>
+      </c>
+      <c r="K198">
+        <v>242</v>
+      </c>
+      <c r="L198">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12">
+      <c r="A199">
+        <v>48400</v>
+      </c>
+      <c r="B199">
+        <v>242</v>
+      </c>
+      <c r="C199">
+        <v>242</v>
+      </c>
+      <c r="D199">
+        <v>242</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <v>242</v>
+      </c>
+      <c r="I199">
+        <v>242</v>
+      </c>
+      <c r="J199">
+        <v>242</v>
+      </c>
+      <c r="K199">
+        <v>242</v>
+      </c>
+      <c r="L199">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12">
+      <c r="A200">
+        <v>48400</v>
+      </c>
+      <c r="B200">
+        <v>242</v>
+      </c>
+      <c r="C200">
+        <v>242</v>
+      </c>
+      <c r="D200">
+        <v>242</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <v>242</v>
+      </c>
+      <c r="I200">
+        <v>242</v>
+      </c>
+      <c r="J200">
+        <v>242</v>
+      </c>
+      <c r="K200">
+        <v>242</v>
+      </c>
+      <c r="L200">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12">
+      <c r="A201">
+        <v>48400</v>
+      </c>
+      <c r="B201">
+        <v>242</v>
+      </c>
+      <c r="C201">
+        <v>242</v>
+      </c>
+      <c r="D201">
+        <v>242</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <v>242</v>
+      </c>
+      <c r="I201">
+        <v>242</v>
+      </c>
+      <c r="J201">
+        <v>242</v>
+      </c>
+      <c r="K201">
+        <v>242</v>
+      </c>
+      <c r="L201">
         <v>242</v>
       </c>
     </row>
